--- a/outcome/appendix/data/forecast/AHC.xlsx
+++ b/outcome/appendix/data/forecast/AHC.xlsx
@@ -459,10 +459,10 @@
         <v>2853.31143039971</v>
       </c>
       <c r="C3" t="n">
-        <v>-59758.324463447</v>
+        <v>-73011.9508410066</v>
       </c>
       <c r="D3" t="n">
-        <v>-92434.5383332102</v>
+        <v>-112704.210707672</v>
       </c>
       <c r="E3" t="n">
         <v>88478.1417601011</v>
@@ -491,16 +491,16 @@
         <v>3295.51137833949</v>
       </c>
       <c r="C4" t="n">
-        <v>-4180397.13023515</v>
+        <v>-5035953.89235253</v>
       </c>
       <c r="D4" t="n">
-        <v>-6394842.33372801</v>
+        <v>-7703303.48781912</v>
       </c>
       <c r="E4" t="n">
-        <v>4185976.00176383</v>
+        <v>5041532.76388121</v>
       </c>
       <c r="F4" t="n">
-        <v>6400421.20525668</v>
+        <v>7708882.3593478</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -523,16 +523,16 @@
         <v>3330.02430346951</v>
       </c>
       <c r="C5" t="n">
-        <v>-214204434.079877</v>
+        <v>-272263753.637073</v>
       </c>
       <c r="D5" t="n">
-        <v>-327598802.382775</v>
+        <v>-416392869.167476</v>
       </c>
       <c r="E5" t="n">
-        <v>214209687.341133</v>
+        <v>272269006.898329</v>
       </c>
       <c r="F5" t="n">
-        <v>327604055.644031</v>
+        <v>416398122.428733</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -555,16 +555,16 @@
         <v>3416.69134573214</v>
       </c>
       <c r="C6" t="n">
-        <v>-9371593055.40653</v>
+        <v>-12516968342.697</v>
       </c>
       <c r="D6" t="n">
-        <v>-14332616041.9198</v>
+        <v>-19143052427.5457</v>
       </c>
       <c r="E6" t="n">
-        <v>9371597950.68675</v>
+        <v>12516973237.9772</v>
       </c>
       <c r="F6" t="n">
-        <v>14332620937.2</v>
+        <v>19143057322.8259</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,16 +587,16 @@
         <v>3431.46970507184</v>
       </c>
       <c r="C7" t="n">
-        <v>-364413584150.993</v>
+        <v>-525191001914.769</v>
       </c>
       <c r="D7" t="n">
-        <v>-557322483949.414</v>
+        <v>-803210325544.333</v>
       </c>
       <c r="E7" t="n">
-        <v>364413588294.417</v>
+        <v>525191006058.193</v>
       </c>
       <c r="F7" t="n">
-        <v>557322488092.838</v>
+        <v>803210329687.757</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -619,16 +619,16 @@
         <v>3338.82738604247</v>
       </c>
       <c r="C8" t="n">
-        <v>-13454290759759.8</v>
+        <v>-18531415397176.5</v>
       </c>
       <c r="D8" t="n">
-        <v>-20576562064842.1</v>
+        <v>-28341354135560.7</v>
       </c>
       <c r="E8" t="n">
-        <v>13454290762899.1</v>
+        <v>18531415400315.8</v>
       </c>
       <c r="F8" t="n">
-        <v>20576562067981.4</v>
+        <v>28341354138700</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -651,16 +651,16 @@
         <v>3176.89043394927</v>
       </c>
       <c r="C9" t="n">
-        <v>-409622823643659</v>
+        <v>-625805360606585</v>
       </c>
       <c r="D9" t="n">
-        <v>-626464048090651</v>
+        <v>-957086707315274</v>
       </c>
       <c r="E9" t="n">
-        <v>409622823646043</v>
+        <v>625805360608969</v>
       </c>
       <c r="F9" t="n">
-        <v>626464048093035</v>
+        <v>957086707317658</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -683,16 +683,16 @@
         <v>4417.63261321862</v>
       </c>
       <c r="C10" t="n">
-        <v>-83306146687704544</v>
+        <v>-124612103773530032</v>
       </c>
       <c r="D10" t="n">
-        <v>-127405756887612944</v>
+        <v>-190577766826028064</v>
       </c>
       <c r="E10" t="n">
-        <v>83306146687715072</v>
+        <v>124612103773540560</v>
       </c>
       <c r="F10" t="n">
-        <v>127405756887623472</v>
+        <v>190577766826038624</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -715,16 +715,16 @@
         <v>3753.8532591697</v>
       </c>
       <c r="C11" t="n">
-        <v>-3047830643935378944</v>
+        <v>-3566749759747172864</v>
       </c>
       <c r="D11" t="n">
-        <v>-4661254727235530752</v>
+        <v>-5454873029631564800</v>
       </c>
       <c r="E11" t="n">
-        <v>3047830643935387136</v>
+        <v>3566749759747181056</v>
       </c>
       <c r="F11" t="n">
-        <v>4661254727235538944</v>
+        <v>5454873029631572992</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -747,16 +747,16 @@
         <v>3670.08683630711</v>
       </c>
       <c r="C12" t="n">
-        <v>-74633063690825089024</v>
+        <v>-155515683945549987840</v>
       </c>
       <c r="D12" t="n">
-        <v>-114141421088849936384</v>
+        <v>-237840714146265038848</v>
       </c>
       <c r="E12" t="n">
-        <v>74633063690825089024</v>
+        <v>155515683945549987840</v>
       </c>
       <c r="F12" t="n">
-        <v>114141421088849936384</v>
+        <v>237840714146265038848</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -779,16 +779,16 @@
         <v>3419.80671507598</v>
       </c>
       <c r="C13" t="n">
-        <v>-3948159500514248622080</v>
+        <v>-3946295522805467316224</v>
       </c>
       <c r="D13" t="n">
-        <v>-6038188890931729530880</v>
+        <v>-6035338183027796738048</v>
       </c>
       <c r="E13" t="n">
-        <v>3948159500514248622080</v>
+        <v>3946295522805467316224</v>
       </c>
       <c r="F13" t="n">
-        <v>6038188890931729530880</v>
+        <v>6035338183027796738048</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -811,16 +811,16 @@
         <v>3067.67883928309</v>
       </c>
       <c r="C14" t="n">
-        <v>-152365853552033354743808</v>
+        <v>-118267552423145444999168</v>
       </c>
       <c r="D14" t="n">
-        <v>-233023464263636444250112</v>
+        <v>-180874612868631123460096</v>
       </c>
       <c r="E14" t="n">
-        <v>152365853552033354743808</v>
+        <v>118267552423145444999168</v>
       </c>
       <c r="F14" t="n">
-        <v>233023464263636444250112</v>
+        <v>180874612868631123460096</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,16 +843,16 @@
         <v>2912.74988295901</v>
       </c>
       <c r="C15" t="n">
-        <v>-4714249196077569684799488</v>
+        <v>-3901470571515140450025472</v>
       </c>
       <c r="D15" t="n">
-        <v>-7209821974297587973357568</v>
+        <v>-5966784335878877165387776</v>
       </c>
       <c r="E15" t="n">
-        <v>4714249196077569684799488</v>
+        <v>3901470571515140450025472</v>
       </c>
       <c r="F15" t="n">
-        <v>7209821974297587973357568</v>
+        <v>5966784335878877165387776</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -875,16 +875,16 @@
         <v>3368.51175358717</v>
       </c>
       <c r="C16" t="n">
-        <v>-247811214462921726159224832</v>
+        <v>-227793249299855228304097280</v>
       </c>
       <c r="D16" t="n">
-        <v>-378994547212040710882590720</v>
+        <v>-348379711400330751945736192</v>
       </c>
       <c r="E16" t="n">
-        <v>247811214462921726159224832</v>
+        <v>227793249299855228304097280</v>
       </c>
       <c r="F16" t="n">
-        <v>378994547212040710882590720</v>
+        <v>348379711400330751945736192</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -907,16 +907,16 @@
         <v>3393.73932063347</v>
       </c>
       <c r="C17" t="n">
-        <v>-8247242121628536766231216128</v>
+        <v>-8282674178221843474162909184</v>
       </c>
       <c r="D17" t="n">
-        <v>-12613068381141999948235014144</v>
+        <v>-12667257035495173644049448960</v>
       </c>
       <c r="E17" t="n">
-        <v>8247242121628536766231216128</v>
+        <v>8282674178221843474162909184</v>
       </c>
       <c r="F17" t="n">
-        <v>12613068381141999948235014144</v>
+        <v>12667257035495173644049448960</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -939,16 +939,16 @@
         <v>3473.02584759066</v>
       </c>
       <c r="C18" t="n">
-        <v>-216016913985500891129812353024</v>
+        <v>-270719769638154350813327130624</v>
       </c>
       <c r="D18" t="n">
-        <v>-330369360739026467558128615424</v>
+        <v>-414030158956796453939801227264</v>
       </c>
       <c r="E18" t="n">
-        <v>216016913985500891129812353024</v>
+        <v>270719769638154350813327130624</v>
       </c>
       <c r="F18" t="n">
-        <v>330369360739026467558128615424</v>
+        <v>414030158956796453939801227264</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -971,16 +971,16 @@
         <v>3478.39322592463</v>
       </c>
       <c r="C19" t="n">
-        <v>-5127918144827576718499061432320</v>
+        <v>-6687121317233408971281830772736</v>
       </c>
       <c r="D19" t="n">
-        <v>-7842474036743483454210269249536</v>
+        <v>-10227069510431953630774599614464</v>
       </c>
       <c r="E19" t="n">
-        <v>5127918144827576718499061432320</v>
+        <v>6687121317233408971281830772736</v>
       </c>
       <c r="F19" t="n">
-        <v>7842474036743483454210269249536</v>
+        <v>10227069510431953630774599614464</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,16 +1003,16 @@
         <v>3411.4617498825</v>
       </c>
       <c r="C20" t="n">
-        <v>-116369693995046462567236480532480</v>
+        <v>-153310576862215163498956851249152</v>
       </c>
       <c r="D20" t="n">
-        <v>-177972088875966766679424866713600</v>
+        <v>-234468293885084347301168307765248</v>
       </c>
       <c r="E20" t="n">
-        <v>116369693995046462567236480532480</v>
+        <v>153310576862215163498956851249152</v>
       </c>
       <c r="F20" t="n">
-        <v>177972088875966766679424866713600</v>
+        <v>234468293885084347301168307765248</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1035,16 +1035,16 @@
         <v>3199.806346053</v>
       </c>
       <c r="C21" t="n">
-        <v>-2129080195676533610229280828030976</v>
+        <v>-3791931281239197862911870198874112</v>
       </c>
       <c r="D21" t="n">
-        <v>-3256147170285883946786063881601024</v>
+        <v>-5799258448037062048537223425425408</v>
       </c>
       <c r="E21" t="n">
-        <v>2129080195676533610229280828030976</v>
+        <v>3791931281239197862911870198874112</v>
       </c>
       <c r="F21" t="n">
-        <v>3256147170285883946786063881601024</v>
+        <v>5799258448037062048537223425425408</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1067,16 +1067,16 @@
         <v>4547.18815566725</v>
       </c>
       <c r="C22" t="n">
-        <v>-225239502433260780125996129263288320</v>
+        <v>-569825568032691415885959748976115712</v>
       </c>
       <c r="D22" t="n">
-        <v>-344474092602986355796155171143155712</v>
+        <v>-871473002601770837550998567235092480</v>
       </c>
       <c r="E22" t="n">
-        <v>225239502433260780125996129263288320</v>
+        <v>569825568032691415885959748976115712</v>
       </c>
       <c r="F22" t="n">
-        <v>344474092602986355796155171143155712</v>
+        <v>871473002601770837550998567235092480</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1099,16 +1099,16 @@
         <v>3853.04814617598</v>
       </c>
       <c r="C23" t="n">
-        <v>-3819063265017523476312508758308683776</v>
+        <v>-10647656109146936690717697085028696064</v>
       </c>
       <c r="D23" t="n">
-        <v>-5840753236436033782237179719050067968</v>
+        <v>-16284184776308629574397771454288494592</v>
       </c>
       <c r="E23" t="n">
-        <v>3819063265017523476312508758308683776</v>
+        <v>10647656109146936690717697085028696064</v>
       </c>
       <c r="F23" t="n">
-        <v>5840753236436033782237179719050067968</v>
+        <v>16284184776308629574397771454288494592</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1131,16 +1131,16 @@
         <v>3770.62501575019</v>
       </c>
       <c r="C24" t="n">
-        <v>-32377368960611767201041646306314944512</v>
+        <v>-279717279263636134616601491643926839296</v>
       </c>
       <c r="D24" t="n">
-        <v>-49516912766594096007269684403201114112</v>
+        <v>-427790662467244653098856826986991452160</v>
       </c>
       <c r="E24" t="n">
-        <v>32377368960611767201041646306314944512</v>
+        <v>279717279263636134616601491643926839296</v>
       </c>
       <c r="F24" t="n">
-        <v>49516912766594096007269684403201114112</v>
+        <v>427790662467244653098856826986991452160</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1163,16 +1163,16 @@
         <v>3500.70970559201</v>
       </c>
       <c r="C25" t="n">
-        <v>-807674463713086785065677607845649973248</v>
+        <v>-6019598216753045215872377534643932495872</v>
       </c>
       <c r="D25" t="n">
-        <v>-1235231498030002843824560628077646839808</v>
+        <v>-9206181025750461028557016356109840023552</v>
       </c>
       <c r="E25" t="n">
-        <v>807674463713086785065677607845649973248</v>
+        <v>6019598216753045215872377534643932495872</v>
       </c>
       <c r="F25" t="n">
-        <v>1235231498030002843824560628077646839808</v>
+        <v>9206181025750461028557016356109840023552</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1195,16 +1195,16 @@
         <v>3133.62625762738</v>
       </c>
       <c r="C26" t="n">
-        <v>-22353059357142673887352671118658753265664</v>
+        <v>-99088261499259986446604631760404599537664</v>
       </c>
       <c r="D26" t="n">
-        <v>-34186054203498195543794304350444631097344</v>
+        <v>-151542418620281028281688392498290054135808</v>
       </c>
       <c r="E26" t="n">
-        <v>22353059357142673887352671118658753265664</v>
+        <v>99088261499259986446604631760404599537664</v>
       </c>
       <c r="F26" t="n">
-        <v>34186054203498195543794304350444631097344</v>
+        <v>151542418620281028281688392498290054135808</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1227,16 +1227,16 @@
         <v>2968.8082005554</v>
       </c>
       <c r="C27" t="n">
-        <v>-256102988288396478832422735824367252406272</v>
+        <v>-2651178615651878715113358375645405469736960</v>
       </c>
       <c r="D27" t="n">
-        <v>-391675720957067701117165651938525577216000</v>
+        <v>-4054627798805962487860342501619616400277504</v>
       </c>
       <c r="E27" t="n">
-        <v>256102988288396478832422735824367252406272</v>
+        <v>2651178615651878715113358375645405469736960</v>
       </c>
       <c r="F27" t="n">
-        <v>391675720957067701117165651938525577216000</v>
+        <v>4054627798805962487860342501619616400277504</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,16 +1259,16 @@
         <v>3447.18746237836</v>
       </c>
       <c r="C28" t="n">
-        <v>-5294591053731026253985953993742946465218560</v>
+        <v>-82047463316719486501767070397646815304351744</v>
       </c>
       <c r="D28" t="n">
-        <v>-8097378253969005593246682352350524493266944</v>
+        <v>-125480766788579818374454625652977133338755072</v>
       </c>
       <c r="E28" t="n">
-        <v>5294591053731026253985953993742946465218560</v>
+        <v>82047463316719486501767070397646815304351744</v>
       </c>
       <c r="F28" t="n">
-        <v>8097378253969005593246682352350524493266944</v>
+        <v>125480766788579818374454625652977133338755072</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1291,16 +1291,16 @@
         <v>3467.36039347833</v>
       </c>
       <c r="C29" t="n">
-        <v>-88810529043611005334965580894040440558321664</v>
+        <v>-3766045418667265559012305809945890308663279616</v>
       </c>
       <c r="D29" t="n">
-        <v>-135823983250690475805176980713968871562805248</v>
+        <v>-5759669437564291589566300890791608689400741888</v>
       </c>
       <c r="E29" t="n">
-        <v>88810529043611005334965580894040440558321664</v>
+        <v>3766045418667265559012305809945890308663279616</v>
       </c>
       <c r="F29" t="n">
-        <v>135823983250690475805176980713968871562805248</v>
+        <v>5759669437564291589566300890791608689400741888</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>3541.27284194524</v>
       </c>
       <c r="C30" t="n">
-        <v>-1070937754741441538848995225501945519883157504</v>
+        <v>-100882123833880726637992598127576862122427023360</v>
       </c>
       <c r="D30" t="n">
-        <v>-1637857957034632494441856664331575948000362496</v>
+        <v>-154285894313032805128444633474988357694223548416</v>
       </c>
       <c r="E30" t="n">
-        <v>1070937754741441538848995225501945519883157504</v>
+        <v>100882123833880726637992598127576862122427023360</v>
       </c>
       <c r="F30" t="n">
-        <v>1637857957034632494441856664331575948000362496</v>
+        <v>154285894313032805128444633474988357694223548416</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1355,16 +1355,16 @@
         <v>3535.9354808047</v>
       </c>
       <c r="C31" t="n">
-        <v>-10660094781349727562571694239346465408370606080</v>
+        <v>-1832042013056624788756920028449752820211263733760</v>
       </c>
       <c r="D31" t="n">
-        <v>-16303208083827749769637958215793263062995173376</v>
+        <v>-2801866472091074134901590944462618703902699159552</v>
       </c>
       <c r="E31" t="n">
-        <v>10660094781349727562571694239346465408370606080</v>
+        <v>1832042013056624788756920028449752820211263733760</v>
       </c>
       <c r="F31" t="n">
-        <v>16303208083827749769637958215793263062995173376</v>
+        <v>2801866472091074134901590944462618703902699159552</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,16 +1387,16 @@
         <v>3456.56330675843</v>
       </c>
       <c r="C32" t="n">
-        <v>-145683595411246840226273503586965212187615821824</v>
+        <v>-29380520157710995750269318707192518496257457520640</v>
       </c>
       <c r="D32" t="n">
-        <v>-222803832339753973182305059093153834634118692864</v>
+        <v>-44933628036805313940467860969585386097277948395520</v>
       </c>
       <c r="E32" t="n">
-        <v>145683595411246840226273503586965212187615821824</v>
+        <v>29380520157710995750269318707192518496257457520640</v>
       </c>
       <c r="F32" t="n">
-        <v>222803832339753973182305059093153834634118692864</v>
+        <v>44933628036805313940467860969585386097277948395520</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1419,16 +1419,16 @@
         <v>3232.5045637928</v>
       </c>
       <c r="C33" t="n">
-        <v>-1310940919334616766982190764616308448015102771200</v>
+        <v>-448979029221444132972673295201067306510693101993984</v>
       </c>
       <c r="D33" t="n">
-        <v>-2004911122451636034792355079101031328345067880448</v>
+        <v>-686654170418678783761346444027132672266406629212160</v>
       </c>
       <c r="E33" t="n">
-        <v>1310940919334616766982190764616308448015102771200</v>
+        <v>448979029221444132972673295201067306510693101993984</v>
       </c>
       <c r="F33" t="n">
-        <v>2004911122451636034792355079101031328345067880448</v>
+        <v>686654170418678783761346444027132672266406629212160</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1451,16 +1451,16 @@
         <v>4692.49729669796</v>
       </c>
       <c r="C34" t="n">
-        <v>-50662983805377998862332063634228048325385354477568</v>
+        <v>-29594024863812714662533780086823711007311001492127744</v>
       </c>
       <c r="D34" t="n">
-        <v>-77482347396360849722159247381293101949433208111104</v>
+        <v>-45260155307139020644560877119812275671269391233712128</v>
       </c>
       <c r="E34" t="n">
-        <v>50662983805377998862332063634228048325385354477568</v>
+        <v>29594024863812714662533780086823711007311001492127744</v>
       </c>
       <c r="F34" t="n">
-        <v>77482347396360849722159247381293101949433208111104</v>
+        <v>45260155307139020644560877119812275671269391233712128</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1483,16 +1483,16 @@
         <v>3963.14230146103</v>
       </c>
       <c r="C35" t="n">
-        <v>-454156796205459966408938488152889730776369842880512</v>
+        <v>-435677873881980995322068847244103559508960749360775168</v>
       </c>
       <c r="D35" t="n">
-        <v>-694572881676074837358993951948203821350464694255616</v>
+        <v>-666311808769702230586323295676394003888032511208456192</v>
       </c>
       <c r="E35" t="n">
-        <v>454156796205459966408938488152889730776369842880512</v>
+        <v>435677873881980995322068847244103559508960749360775168</v>
       </c>
       <c r="F35" t="n">
-        <v>694572881676074837358993951948203821350464694255616</v>
+        <v>666311808769702230586323295676394003888032511208456192</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1515,16 +1515,16 @@
         <v>3882.54329726794</v>
       </c>
       <c r="C36" t="n">
-        <v>-3107958817824232237970222184259791833856150127771648</v>
+        <v>-6317059805729398388565033971306549891955480892981379072</v>
       </c>
       <c r="D36" t="n">
-        <v>-4753212833679910495017121793813658509204391037239296</v>
+        <v>-9661109268087672676376984235965877183297410992502210560</v>
       </c>
       <c r="E36" t="n">
-        <v>3107958817824232237970222184259791833856150127771648</v>
+        <v>6317059805729398388565033971306549891955480892981379072</v>
       </c>
       <c r="F36" t="n">
-        <v>4753212833679910495017121793813658509204391037239296</v>
+        <v>9661109268087672676376984235965877183297410992502210560</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1547,16 +1547,16 @@
         <v>3590.02482752119</v>
       </c>
       <c r="C37" t="n">
-        <v>-59824380842811927561363061997338991982172644636098560</v>
+        <v>-57790515355002105747685060975147964244421869855913803776</v>
       </c>
       <c r="D37" t="n">
-        <v>-91493495074068203254396403693101264898655650354036736</v>
+        <v>-88382966233340494872732868116837201655810314889997582336</v>
       </c>
       <c r="E37" t="n">
-        <v>59824380842811927561363061997338991982172644636098560</v>
+        <v>57790515355002105747685060975147964244421869855913803776</v>
       </c>
       <c r="F37" t="n">
-        <v>91493495074068203254396403693101264898655650354036736</v>
+        <v>88382966233340494872732868116837201655810314889997582336</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1579,16 +1579,16 @@
         <v>3204.58180694664</v>
       </c>
       <c r="C38" t="n">
-        <v>-1430833088379658843478983432549243122699154526371315712</v>
+        <v>-403750602829060095574952840879645563998585305703150256128</v>
       </c>
       <c r="D38" t="n">
-        <v>-2188270372031899778182744259226801350369126766874722304</v>
+        <v>-617483261350479812524582449343096356592203681599244468224</v>
       </c>
       <c r="E38" t="n">
-        <v>1430833088379658843478983432549243122699154526371315712</v>
+        <v>403750602829060095574952840879645563998585305703150256128</v>
       </c>
       <c r="F38" t="n">
-        <v>2188270372031899778182744259226801350369126766874722304</v>
+        <v>617483261350479812524582449343096356592203681599244468224</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1611,16 +1611,16 @@
         <v>3028.93296888132</v>
       </c>
       <c r="C39" t="n">
-        <v>-9440010361156937083470634819527451358183563421416423424</v>
+        <v>-4736086692355868905213195094282026017739174288624365600768</v>
       </c>
       <c r="D39" t="n">
-        <v>-14437249985871621830590633893350198621201226214800359424</v>
+        <v>-7243219542814314944575246816002084732642580742263495720960</v>
       </c>
       <c r="E39" t="n">
-        <v>9440010361156937083470634819527451358183563421416423424</v>
+        <v>4736086692355868905213195094282026017739174288624365600768</v>
       </c>
       <c r="F39" t="n">
-        <v>14437249985871621830590633893350198621201226214800359424</v>
+        <v>7243219542814314944575246816002084732642580742263495720960</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,16 +1643,16 @@
         <v>3532.07532928138</v>
       </c>
       <c r="C40" t="n">
-        <v>-288502187346865202136459999759857165701983592198124339200</v>
+        <v>-47410125404256819380244891939018652907170537084912951885824</v>
       </c>
       <c r="D40" t="n">
-        <v>-441226019977269426758135553504447081915818148552780021760</v>
+        <v>-72507529773398675604406805362296719654975207283654972669952</v>
       </c>
       <c r="E40" t="n">
-        <v>288502187346865202136459999759857165701983592198124339200</v>
+        <v>47410125404256819380244891939018652907170537084912951885824</v>
       </c>
       <c r="F40" t="n">
-        <v>441226019977269426758135553504447081915818148552780021760</v>
+        <v>72507529773398675604406805362296719654975207283654972669952</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/AHC.xlsx
+++ b/outcome/appendix/data/forecast/AHC.xlsx
@@ -459,10 +459,10 @@
         <v>2853.31143039971</v>
       </c>
       <c r="C3" t="n">
-        <v>-73011.9508410066</v>
+        <v>-55999.591068464</v>
       </c>
       <c r="D3" t="n">
-        <v>-112704.210707672</v>
+        <v>-86686.0516708543</v>
       </c>
       <c r="E3" t="n">
         <v>88478.1417601011</v>
@@ -491,16 +491,16 @@
         <v>3295.51137833949</v>
       </c>
       <c r="C4" t="n">
-        <v>-5035953.89235253</v>
+        <v>-2861615.20151044</v>
       </c>
       <c r="D4" t="n">
-        <v>-7703303.48781912</v>
+        <v>-4377939.42224485</v>
       </c>
       <c r="E4" t="n">
-        <v>5041532.76388121</v>
+        <v>2867194.07303912</v>
       </c>
       <c r="F4" t="n">
-        <v>7708882.3593478</v>
+        <v>4383518.29377353</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -523,16 +523,16 @@
         <v>3330.02430346951</v>
       </c>
       <c r="C5" t="n">
-        <v>-272263753.637073</v>
+        <v>-88846595.9985799</v>
       </c>
       <c r="D5" t="n">
-        <v>-416392869.167476</v>
+        <v>-135880533.352581</v>
       </c>
       <c r="E5" t="n">
-        <v>272269006.898329</v>
+        <v>88851849.2598362</v>
       </c>
       <c r="F5" t="n">
-        <v>416398122.428733</v>
+        <v>135885786.613837</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -555,16 +555,16 @@
         <v>3416.69134573214</v>
       </c>
       <c r="C6" t="n">
-        <v>-12516968342.697</v>
+        <v>-2669357226.26808</v>
       </c>
       <c r="D6" t="n">
-        <v>-19143052427.5457</v>
+        <v>-4082430880.29262</v>
       </c>
       <c r="E6" t="n">
-        <v>12516973237.9772</v>
+        <v>2669362121.54831</v>
       </c>
       <c r="F6" t="n">
-        <v>19143057322.8259</v>
+        <v>4082435775.57284</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,16 +587,16 @@
         <v>3431.46970507184</v>
       </c>
       <c r="C7" t="n">
-        <v>-525191001914.769</v>
+        <v>-57923542586.9978</v>
       </c>
       <c r="D7" t="n">
-        <v>-803210325544.333</v>
+        <v>-88586414924.8794</v>
       </c>
       <c r="E7" t="n">
-        <v>525191006058.193</v>
+        <v>57923546730.4217</v>
       </c>
       <c r="F7" t="n">
-        <v>803210329687.757</v>
+        <v>88586419068.3033</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -619,16 +619,16 @@
         <v>3338.82738604247</v>
       </c>
       <c r="C8" t="n">
-        <v>-18531415397176.5</v>
+        <v>-1005097844247.04</v>
       </c>
       <c r="D8" t="n">
-        <v>-28341354135560.7</v>
+        <v>-1537164504099.2</v>
       </c>
       <c r="E8" t="n">
-        <v>18531415400315.8</v>
+        <v>1005097847386.33</v>
       </c>
       <c r="F8" t="n">
-        <v>28341354138700</v>
+        <v>1537164507238.49</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -651,16 +651,16 @@
         <v>3176.89043394927</v>
       </c>
       <c r="C9" t="n">
-        <v>-625805360606585</v>
+        <v>-20282180726779.9</v>
       </c>
       <c r="D9" t="n">
-        <v>-957086707315274</v>
+        <v>-31018918646739.6</v>
       </c>
       <c r="E9" t="n">
-        <v>625805360608969</v>
+        <v>20282180729164</v>
       </c>
       <c r="F9" t="n">
-        <v>957086707317658</v>
+        <v>31018918649123.7</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -683,16 +683,16 @@
         <v>4417.63261321862</v>
       </c>
       <c r="C10" t="n">
-        <v>-124612103773530032</v>
+        <v>-2169040088218576</v>
       </c>
       <c r="D10" t="n">
-        <v>-190577766826028064</v>
+        <v>-3317260552156542</v>
       </c>
       <c r="E10" t="n">
-        <v>124612103773540560</v>
+        <v>2169040088229111</v>
       </c>
       <c r="F10" t="n">
-        <v>190577766826038624</v>
+        <v>3317260552167076</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -715,16 +715,16 @@
         <v>3753.8532591697</v>
       </c>
       <c r="C11" t="n">
-        <v>-3566749759747172864</v>
+        <v>-31690712230044544</v>
       </c>
       <c r="D11" t="n">
-        <v>-5454873029631564800</v>
+        <v>-48466761919890440</v>
       </c>
       <c r="E11" t="n">
-        <v>3566749759747181056</v>
+        <v>31690712230052552</v>
       </c>
       <c r="F11" t="n">
-        <v>5454873029631572992</v>
+        <v>48466761919898440</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -747,16 +747,16 @@
         <v>3670.08683630711</v>
       </c>
       <c r="C12" t="n">
-        <v>-155515683945549987840</v>
+        <v>-772211970666645248</v>
       </c>
       <c r="D12" t="n">
-        <v>-237840714146265038848</v>
+        <v>-1180996295138663936</v>
       </c>
       <c r="E12" t="n">
-        <v>155515683945549987840</v>
+        <v>772211970666653440</v>
       </c>
       <c r="F12" t="n">
-        <v>237840714146265038848</v>
+        <v>1180996295138672128</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -779,16 +779,16 @@
         <v>3419.80671507598</v>
       </c>
       <c r="C13" t="n">
-        <v>-3946295522805467316224</v>
+        <v>-13780922996868429824</v>
       </c>
       <c r="D13" t="n">
-        <v>-6035338183027796738048</v>
+        <v>-21076102962820575232</v>
       </c>
       <c r="E13" t="n">
-        <v>3946295522805467316224</v>
+        <v>13780922996868438016</v>
       </c>
       <c r="F13" t="n">
-        <v>6035338183027796738048</v>
+        <v>21076102962820583424</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -811,16 +811,16 @@
         <v>3067.67883928309</v>
       </c>
       <c r="C14" t="n">
-        <v>-118267552423145444999168</v>
+        <v>-291581580141661356032</v>
       </c>
       <c r="D14" t="n">
-        <v>-180874612868631123460096</v>
+        <v>-445935544848777674752</v>
       </c>
       <c r="E14" t="n">
-        <v>118267552423145444999168</v>
+        <v>291581580141661356032</v>
       </c>
       <c r="F14" t="n">
-        <v>180874612868631123460096</v>
+        <v>445935544848777674752</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,16 +843,16 @@
         <v>2912.74988295901</v>
       </c>
       <c r="C15" t="n">
-        <v>-3901470571515140450025472</v>
+        <v>-4541897317076396146688</v>
       </c>
       <c r="D15" t="n">
-        <v>-5966784335878877165387776</v>
+        <v>-6946232521799393869824</v>
       </c>
       <c r="E15" t="n">
-        <v>3901470571515140450025472</v>
+        <v>4541897317076396146688</v>
       </c>
       <c r="F15" t="n">
-        <v>5966784335878877165387776</v>
+        <v>6946232521799393869824</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -875,16 +875,16 @@
         <v>3368.51175358717</v>
       </c>
       <c r="C16" t="n">
-        <v>-227793249299855228304097280</v>
+        <v>-168394911075449736003584</v>
       </c>
       <c r="D16" t="n">
-        <v>-348379711400330751945736192</v>
+        <v>-257537792283411746914304</v>
       </c>
       <c r="E16" t="n">
-        <v>227793249299855228304097280</v>
+        <v>168394911075449736003584</v>
       </c>
       <c r="F16" t="n">
-        <v>348379711400330751945736192</v>
+        <v>257537792283411746914304</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -907,16 +907,16 @@
         <v>3393.73932063347</v>
       </c>
       <c r="C17" t="n">
-        <v>-8282674178221843474162909184</v>
+        <v>-3566855963540820160675840</v>
       </c>
       <c r="D17" t="n">
-        <v>-12667257035495173644049448960</v>
+        <v>-5455035454317518643003392</v>
       </c>
       <c r="E17" t="n">
-        <v>8282674178221843474162909184</v>
+        <v>3566855963540820160675840</v>
       </c>
       <c r="F17" t="n">
-        <v>12667257035495173644049448960</v>
+        <v>5455035454317518643003392</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -939,16 +939,16 @@
         <v>3473.02584759066</v>
       </c>
       <c r="C18" t="n">
-        <v>-270719769638154350813327130624</v>
+        <v>-71357756244728424362409984</v>
       </c>
       <c r="D18" t="n">
-        <v>-414030158956796453939801227264</v>
+        <v>-109132270614348879806595072</v>
       </c>
       <c r="E18" t="n">
-        <v>270719769638154350813327130624</v>
+        <v>71357756244728424362409984</v>
       </c>
       <c r="F18" t="n">
-        <v>414030158956796453939801227264</v>
+        <v>109132270614348879806595072</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -971,16 +971,16 @@
         <v>3478.39322592463</v>
       </c>
       <c r="C19" t="n">
-        <v>-6687121317233408971281830772736</v>
+        <v>-1396305188910789806507687936</v>
       </c>
       <c r="D19" t="n">
-        <v>-10227069510431953630774599614464</v>
+        <v>-2135464506672869204245348352</v>
       </c>
       <c r="E19" t="n">
-        <v>6687121317233408971281830772736</v>
+        <v>1396305188910789806507687936</v>
       </c>
       <c r="F19" t="n">
-        <v>10227069510431953630774599614464</v>
+        <v>2135464506672869204245348352</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,16 +1003,16 @@
         <v>3411.4617498825</v>
       </c>
       <c r="C20" t="n">
-        <v>-153310576862215163498956851249152</v>
+        <v>-17936342707846395947483398144</v>
       </c>
       <c r="D20" t="n">
-        <v>-234468293885084347301168307765248</v>
+        <v>-27431268992135690952349057024</v>
       </c>
       <c r="E20" t="n">
-        <v>153310576862215163498956851249152</v>
+        <v>17936342707846395947483398144</v>
       </c>
       <c r="F20" t="n">
-        <v>234468293885084347301168307765248</v>
+        <v>27431268992135690952349057024</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1035,16 +1035,16 @@
         <v>3199.806346053</v>
       </c>
       <c r="C21" t="n">
-        <v>-3791931281239197862911870198874112</v>
+        <v>-192553098038064951000035229696</v>
       </c>
       <c r="D21" t="n">
-        <v>-5799258448037062048537223425425408</v>
+        <v>-294484550924676139438649114624</v>
       </c>
       <c r="E21" t="n">
-        <v>3791931281239197862911870198874112</v>
+        <v>192553098038064951000035229696</v>
       </c>
       <c r="F21" t="n">
-        <v>5799258448037062048537223425425408</v>
+        <v>294484550924676139438649114624</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1067,16 +1067,16 @@
         <v>4547.18815566725</v>
       </c>
       <c r="C22" t="n">
-        <v>-569825568032691415885959748976115712</v>
+        <v>-13505387910507889914547248562176</v>
       </c>
       <c r="D22" t="n">
-        <v>-871473002601770837550998567235092480</v>
+        <v>-20654708412446550870139433123840</v>
       </c>
       <c r="E22" t="n">
-        <v>569825568032691415885959748976115712</v>
+        <v>13505387910507889914547248562176</v>
       </c>
       <c r="F22" t="n">
-        <v>871473002601770837550998567235092480</v>
+        <v>20654708412446550870139433123840</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1099,16 +1099,16 @@
         <v>3853.04814617598</v>
       </c>
       <c r="C23" t="n">
-        <v>-10647656109146936690717697085028696064</v>
+        <v>-147376130159768555050517712076800</v>
       </c>
       <c r="D23" t="n">
-        <v>-16284184776308629574397771454288494592</v>
+        <v>-225392340862448790242749969334272</v>
       </c>
       <c r="E23" t="n">
-        <v>10647656109146936690717697085028696064</v>
+        <v>147376130159768555050517712076800</v>
       </c>
       <c r="F23" t="n">
-        <v>16284184776308629574397771454288494592</v>
+        <v>225392340862448790242749969334272</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1131,16 +1131,16 @@
         <v>3770.62501575019</v>
       </c>
       <c r="C24" t="n">
-        <v>-279717279263636134616601491643926839296</v>
+        <v>-2314937749754196635240740279025664</v>
       </c>
       <c r="D24" t="n">
-        <v>-427790662467244653098856826986991452160</v>
+        <v>-3540391770378994382200428327600128</v>
       </c>
       <c r="E24" t="n">
-        <v>279717279263636134616601491643926839296</v>
+        <v>2314937749754196635240740279025664</v>
       </c>
       <c r="F24" t="n">
-        <v>427790662467244653098856826986991452160</v>
+        <v>3540391770378994382200428327600128</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1163,16 +1163,16 @@
         <v>3500.70970559201</v>
       </c>
       <c r="C25" t="n">
-        <v>-6019598216753045215872377534643932495872</v>
+        <v>-39954672010289391469408560273686528</v>
       </c>
       <c r="D25" t="n">
-        <v>-9206181025750461028557016356109840023552</v>
+        <v>-61105397753542370185240814760755200</v>
       </c>
       <c r="E25" t="n">
-        <v>6019598216753045215872377534643932495872</v>
+        <v>39954672010289391469408560273686528</v>
       </c>
       <c r="F25" t="n">
-        <v>9206181025750461028557016356109840023552</v>
+        <v>61105397753542370185240814760755200</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1195,16 +1195,16 @@
         <v>3133.62625762738</v>
       </c>
       <c r="C26" t="n">
-        <v>-99088261499259986446604631760404599537664</v>
+        <v>-475609856359202004882129773465174016</v>
       </c>
       <c r="D26" t="n">
-        <v>-151542418620281028281688392498290054135808</v>
+        <v>-727382505876906441188451915061526528</v>
       </c>
       <c r="E26" t="n">
-        <v>99088261499259986446604631760404599537664</v>
+        <v>475609856359202004882129773465174016</v>
       </c>
       <c r="F26" t="n">
-        <v>151542418620281028281688392498290054135808</v>
+        <v>727382505876906441188451915061526528</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1227,16 +1227,16 @@
         <v>2968.8082005554</v>
       </c>
       <c r="C27" t="n">
-        <v>-2651178615651878715113358375645405469736960</v>
+        <v>-6985107638546675987904459645028139008</v>
       </c>
       <c r="D27" t="n">
-        <v>-4054627798805962487860342501619616400277504</v>
+        <v>-10682800261626028900230413978586578944</v>
       </c>
       <c r="E27" t="n">
-        <v>2651178615651878715113358375645405469736960</v>
+        <v>6985107638546675987904459645028139008</v>
       </c>
       <c r="F27" t="n">
-        <v>4054627798805962487860342501619616400277504</v>
+        <v>10682800261626028900230413978586578944</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,16 +1259,16 @@
         <v>3447.18746237836</v>
       </c>
       <c r="C28" t="n">
-        <v>-82047463316719486501767070397646815304351744</v>
+        <v>-223599862308037072375457372056443682816</v>
       </c>
       <c r="D28" t="n">
-        <v>-125480766788579818374454625652977133338755072</v>
+        <v>-341966479425767413899694289326354464768</v>
       </c>
       <c r="E28" t="n">
-        <v>82047463316719486501767070397646815304351744</v>
+        <v>223599862308037072375457372056443682816</v>
       </c>
       <c r="F28" t="n">
-        <v>125480766788579818374454625652977133338755072</v>
+        <v>341966479425767413899694289326354464768</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1291,16 +1291,16 @@
         <v>3467.36039347833</v>
       </c>
       <c r="C29" t="n">
-        <v>-3766045418667265559012305809945890308663279616</v>
+        <v>-4411607143689350831737557359414235627520</v>
       </c>
       <c r="D29" t="n">
-        <v>-5759669437564291589566300890791608689400741888</v>
+        <v>-6746970896872449148357899965047324540928</v>
       </c>
       <c r="E29" t="n">
-        <v>3766045418667265559012305809945890308663279616</v>
+        <v>4411607143689350831737557359414235627520</v>
       </c>
       <c r="F29" t="n">
-        <v>5759669437564291589566300890791608689400741888</v>
+        <v>6746970896872449148357899965047324540928</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>3541.27284194524</v>
       </c>
       <c r="C30" t="n">
-        <v>-100882123833880726637992598127576862122427023360</v>
+        <v>-45227030408970949782836906594635087872000</v>
       </c>
       <c r="D30" t="n">
-        <v>-154285894313032805128444633474988357694223548416</v>
+        <v>-69168774095805893584085530463077046157312</v>
       </c>
       <c r="E30" t="n">
-        <v>100882123833880726637992598127576862122427023360</v>
+        <v>45227030408970949782836906594635087872000</v>
       </c>
       <c r="F30" t="n">
-        <v>154285894313032805128444633474988357694223548416</v>
+        <v>69168774095805893584085530463077046157312</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1355,16 +1355,16 @@
         <v>3535.9354808047</v>
       </c>
       <c r="C31" t="n">
-        <v>-1832042013056624788756920028449752820211263733760</v>
+        <v>-827180460135848089041054512079728606707712</v>
       </c>
       <c r="D31" t="n">
-        <v>-2801866472091074134901590944462618703902699159552</v>
+        <v>-1265063345221366343662781062399084386582528</v>
       </c>
       <c r="E31" t="n">
-        <v>1832042013056624788756920028449752820211263733760</v>
+        <v>827180460135848089041054512079728606707712</v>
       </c>
       <c r="F31" t="n">
-        <v>2801866472091074134901590944462618703902699159552</v>
+        <v>1265063345221366343662781062399084386582528</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,16 +1387,16 @@
         <v>3456.56330675843</v>
       </c>
       <c r="C32" t="n">
-        <v>-29380520157710995750269318707192518496257457520640</v>
+        <v>-14598492939208876120518451175409008248881152</v>
       </c>
       <c r="D32" t="n">
-        <v>-44933628036805313940467860969585386097277948395520</v>
+        <v>-22326468289438403193378573269861232736731136</v>
       </c>
       <c r="E32" t="n">
-        <v>29380520157710995750269318707192518496257457520640</v>
+        <v>14598492939208876120518451175409008248881152</v>
       </c>
       <c r="F32" t="n">
-        <v>44933628036805313940467860969585386097277948395520</v>
+        <v>22326468289438403193378573269861232736731136</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1419,16 +1419,16 @@
         <v>3232.5045637928</v>
       </c>
       <c r="C33" t="n">
-        <v>-448979029221444132972673295201067306510693101993984</v>
+        <v>-222280087564831583383156065632990737639407616</v>
       </c>
       <c r="D33" t="n">
-        <v>-686654170418678783761346444027132672266406629212160</v>
+        <v>-339948058135564267727588401974613455994355712</v>
       </c>
       <c r="E33" t="n">
-        <v>448979029221444132972673295201067306510693101993984</v>
+        <v>222280087564831583383156065632990737639407616</v>
       </c>
       <c r="F33" t="n">
-        <v>686654170418678783761346444027132672266406629212160</v>
+        <v>339948058135564267727588401974613455994355712</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1451,16 +1451,16 @@
         <v>4692.49729669796</v>
       </c>
       <c r="C34" t="n">
-        <v>-29594024863812714662533780086823711007311001492127744</v>
+        <v>-12300467876327393087433978100073821913799983104</v>
       </c>
       <c r="D34" t="n">
-        <v>-45260155307139020644560877119812275671269391233712128</v>
+        <v>-18811942241550437439783858769877292070750650368</v>
       </c>
       <c r="E34" t="n">
-        <v>29594024863812714662533780086823711007311001492127744</v>
+        <v>12300467876327393087433978100073821913799983104</v>
       </c>
       <c r="F34" t="n">
-        <v>45260155307139020644560877119812275671269391233712128</v>
+        <v>18811942241550437439783858769877292070750650368</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1483,16 +1483,16 @@
         <v>3963.14230146103</v>
       </c>
       <c r="C35" t="n">
-        <v>-435677873881980995322068847244103559508960749360775168</v>
+        <v>-155263639367524918412058693568922917946819346432</v>
       </c>
       <c r="D35" t="n">
-        <v>-666311808769702230586323295676394003888032511208456192</v>
+        <v>-237455245228190066723655127811993264859759247360</v>
       </c>
       <c r="E35" t="n">
-        <v>435677873881980995322068847244103559508960749360775168</v>
+        <v>155263639367524918412058693568922917946819346432</v>
       </c>
       <c r="F35" t="n">
-        <v>666311808769702230586323295676394003888032511208456192</v>
+        <v>237455245228190066723655127811993264859759247360</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1515,16 +1515,16 @@
         <v>3882.54329726794</v>
       </c>
       <c r="C36" t="n">
-        <v>-6317059805729398388565033971306549891955480892981379072</v>
+        <v>-3154167111186193363437681088172033612461048332288</v>
       </c>
       <c r="D36" t="n">
-        <v>-9661109268087672676376984235965877183297410992502210560</v>
+        <v>-4823882319958458242232530806147082129111485775872</v>
       </c>
       <c r="E36" t="n">
-        <v>6317059805729398388565033971306549891955480892981379072</v>
+        <v>3154167111186193363437681088172033612461048332288</v>
       </c>
       <c r="F36" t="n">
-        <v>9661109268087672676376984235965877183297410992502210560</v>
+        <v>4823882319958458242232530806147082129111485775872</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1547,16 +1547,16 @@
         <v>3590.02482752119</v>
       </c>
       <c r="C37" t="n">
-        <v>-57790515355002105747685060975147964244421869855913803776</v>
+        <v>-37592817127059390791125151573319171662490361659392</v>
       </c>
       <c r="D37" t="n">
-        <v>-88382966233340494872732868116837201655810314889997582336</v>
+        <v>-57493252419481095805829357864377490468089976848384</v>
       </c>
       <c r="E37" t="n">
-        <v>57790515355002105747685060975147964244421869855913803776</v>
+        <v>37592817127059390791125151573319171662490361659392</v>
       </c>
       <c r="F37" t="n">
-        <v>88382966233340494872732868116837201655810314889997582336</v>
+        <v>57493252419481095805829357864377490468089976848384</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1579,16 +1579,16 @@
         <v>3204.58180694664</v>
       </c>
       <c r="C38" t="n">
-        <v>-403750602829060095574952840879645563998585305703150256128</v>
+        <v>-444640493195820657178631847360364063390877876224000</v>
       </c>
       <c r="D38" t="n">
-        <v>-617483261350479812524582449343096356592203681599244468224</v>
+        <v>-680018952153202245952889384924908093405538256158720</v>
       </c>
       <c r="E38" t="n">
-        <v>403750602829060095574952840879645563998585305703150256128</v>
+        <v>444640493195820657178631847360364063390877876224000</v>
       </c>
       <c r="F38" t="n">
-        <v>617483261350479812524582449343096356592203681599244468224</v>
+        <v>680018952153202245952889384924908093405538256158720</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1611,16 +1611,16 @@
         <v>3028.93296888132</v>
       </c>
       <c r="C39" t="n">
-        <v>-4736086692355868905213195094282026017739174288624365600768</v>
+        <v>-7319646999969959784735556751318663956067064521687040</v>
       </c>
       <c r="D39" t="n">
-        <v>-7243219542814314944575246816002084732642580742263495720960</v>
+        <v>-11194434063518369812487097660086914753052201759801344</v>
       </c>
       <c r="E39" t="n">
-        <v>4736086692355868905213195094282026017739174288624365600768</v>
+        <v>7319646999969959784735556751318663956067064521687040</v>
       </c>
       <c r="F39" t="n">
-        <v>7243219542814314944575246816002084732642580742263495720960</v>
+        <v>11194434063518369812487097660086914753052201759801344</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,16 +1643,16 @@
         <v>3532.07532928138</v>
       </c>
       <c r="C40" t="n">
-        <v>-47410125404256819380244891939018652907170537084912951885824</v>
+        <v>-217120505804819496029771118058865854247519928209899520</v>
       </c>
       <c r="D40" t="n">
-        <v>-72507529773398675604406805362296719654975207283654972669952</v>
+        <v>-332057158778255885623821926364516598902819910640992256</v>
       </c>
       <c r="E40" t="n">
-        <v>47410125404256819380244891939018652907170537084912951885824</v>
+        <v>217120505804819496029771118058865854247519928209899520</v>
       </c>
       <c r="F40" t="n">
-        <v>72507529773398675604406805362296719654975207283654972669952</v>
+        <v>332057158778255885623821926364516598902819910640992256</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/AHC.xlsx
+++ b/outcome/appendix/data/forecast/AHC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,10 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">急性出血性结膜炎</t>
+    <t xml:space="preserve">AHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2944.07882894631</v>
+        <v>1706.93378964285</v>
       </c>
       <c r="C2" t="n">
-        <v>-20461.5013535424</v>
+        <v>331.011500291883</v>
       </c>
       <c r="D2" t="n">
-        <v>-33110.0762002585</v>
+        <v>-397.35776222131</v>
       </c>
       <c r="E2" t="n">
-        <v>28775.3748883111</v>
+        <v>3082.85607899381</v>
       </c>
       <c r="F2" t="n">
-        <v>41727.2975075084</v>
+        <v>3811.225341507</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>805.078828946312</v>
+        <v>-432.066210357153</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2853.31143039971</v>
+        <v>1179.7963372841</v>
       </c>
       <c r="C3" t="n">
-        <v>-55999.591068464</v>
+        <v>-64207.8918644531</v>
       </c>
       <c r="D3" t="n">
-        <v>-86686.0516708543</v>
+        <v>-98822.0431152536</v>
       </c>
       <c r="E3" t="n">
-        <v>88478.1417601011</v>
+        <v>66567.4845390213</v>
       </c>
       <c r="F3" t="n">
-        <v>125413.743774281</v>
+        <v>101181.635789822</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>1181.31143039971</v>
+        <v>-492.203662715904</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3295.51137833949</v>
+        <v>1849.35750551692</v>
       </c>
       <c r="C4" t="n">
-        <v>-2861615.20151044</v>
+        <v>-7097080.55220601</v>
       </c>
       <c r="D4" t="n">
-        <v>-4377939.42224485</v>
+        <v>-10855027.0459782</v>
       </c>
       <c r="E4" t="n">
-        <v>2867194.07303912</v>
+        <v>7100779.26721704</v>
       </c>
       <c r="F4" t="n">
-        <v>4383518.29377353</v>
+        <v>10858725.7609892</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1284.51137833949</v>
+        <v>-161.642494483076</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3330.02430346951</v>
+        <v>1957.16584813172</v>
       </c>
       <c r="C5" t="n">
-        <v>-88846595.9985799</v>
+        <v>-507259707.666757</v>
       </c>
       <c r="D5" t="n">
-        <v>-135880533.352581</v>
+        <v>-775787812.469554</v>
       </c>
       <c r="E5" t="n">
-        <v>88851849.2598362</v>
+        <v>507263621.998454</v>
       </c>
       <c r="F5" t="n">
-        <v>135885786.613837</v>
+        <v>775791726.80125</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1100.02430346951</v>
+        <v>-272.834151868283</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>3416.69134573214</v>
+        <v>1757.14704539784</v>
       </c>
       <c r="C6" t="n">
-        <v>-2669357226.26808</v>
+        <v>-34378455285.5631</v>
       </c>
       <c r="D6" t="n">
-        <v>-4082430880.29262</v>
+        <v>-52577311133.9932</v>
       </c>
       <c r="E6" t="n">
-        <v>2669362121.54831</v>
+        <v>34378458799.8572</v>
       </c>
       <c r="F6" t="n">
-        <v>4082435775.57284</v>
+        <v>52577314648.2873</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>948.69134573214</v>
+        <v>-710.852954602158</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3431.46970507184</v>
+        <v>1314.02653020476</v>
       </c>
       <c r="C7" t="n">
-        <v>-57923542586.9978</v>
+        <v>-1631066080560.32</v>
       </c>
       <c r="D7" t="n">
-        <v>-88586414924.8794</v>
+        <v>-2494500308176.11</v>
       </c>
       <c r="E7" t="n">
-        <v>57923546730.4217</v>
+        <v>1631066083188.37</v>
       </c>
       <c r="F7" t="n">
-        <v>88586419068.3033</v>
+        <v>2494500310804.16</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>643.469705071835</v>
+        <v>-1473.97346979524</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3338.82738604247</v>
+        <v>781.898791282622</v>
       </c>
       <c r="C8" t="n">
-        <v>-1005097844247.04</v>
+        <v>-59555333255819.8</v>
       </c>
       <c r="D8" t="n">
-        <v>-1537164504099.2</v>
+        <v>-91082022298193.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1005097847386.33</v>
+        <v>59555333257383.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1537164507238.49</v>
+        <v>91082022299757</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>777.82738604247</v>
+        <v>-1779.10120871738</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3176.89043394927</v>
+        <v>540.773969634442</v>
       </c>
       <c r="C9" t="n">
-        <v>-20282180726779.9</v>
+        <v>-2932899576121132</v>
       </c>
       <c r="D9" t="n">
-        <v>-31018918646739.6</v>
+        <v>-4485482827238229</v>
       </c>
       <c r="E9" t="n">
-        <v>20282180729164</v>
+        <v>2932899576122214</v>
       </c>
       <c r="F9" t="n">
-        <v>31018918649123.7</v>
+        <v>4485482827239311</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>2796</v>
+        <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>380.890433949272</v>
+        <v>-2020.22603036556</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4417.63261321862</v>
+        <v>3768.69628138122</v>
       </c>
       <c r="C10" t="n">
-        <v>-2169040088218576</v>
+        <v>-1424901120690638592</v>
       </c>
       <c r="D10" t="n">
-        <v>-3317260552156542</v>
+        <v>-2179198210333129472</v>
       </c>
       <c r="E10" t="n">
-        <v>2169040088229111</v>
+        <v>1424901120690646272</v>
       </c>
       <c r="F10" t="n">
-        <v>3317260552167076</v>
+        <v>2179198210333137152</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,10 +704,10 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>1868.63261321862</v>
+        <v>1219.69628138122</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3753.8532591697</v>
+        <v>1420.28365861135</v>
       </c>
       <c r="C11" t="n">
-        <v>-31690712230044544</v>
+        <v>-32032586916673249280</v>
       </c>
       <c r="D11" t="n">
-        <v>-48466761919890440</v>
+        <v>-48989614133590253568</v>
       </c>
       <c r="E11" t="n">
-        <v>31690712230052552</v>
+        <v>32032586916673249280</v>
       </c>
       <c r="F11" t="n">
-        <v>48466761919898440</v>
+        <v>48989614133590253568</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1455.8532591697</v>
+        <v>-877.716341388652</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3670.08683630711</v>
+        <v>1058.98990201872</v>
       </c>
       <c r="C12" t="n">
-        <v>-772211970666645248</v>
+        <v>-1442972417837725122560</v>
       </c>
       <c r="D12" t="n">
-        <v>-1180996295138663936</v>
+        <v>-2206835874329238175744</v>
       </c>
       <c r="E12" t="n">
-        <v>772211970666653440</v>
+        <v>1442972417837725122560</v>
       </c>
       <c r="F12" t="n">
-        <v>1180996295138672128</v>
+        <v>2206835874329238175744</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1132.08683630711</v>
+        <v>-1479.01009798128</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3419.80671507598</v>
+        <v>604.423056896176</v>
       </c>
       <c r="C13" t="n">
-        <v>-13780922996868429824</v>
+        <v>-53413881551957444788224</v>
       </c>
       <c r="D13" t="n">
-        <v>-21076102962820575232</v>
+        <v>-81689482445317619056640</v>
       </c>
       <c r="E13" t="n">
-        <v>13780922996868438016</v>
+        <v>53413881551957444788224</v>
       </c>
       <c r="F13" t="n">
-        <v>21076102962820583424</v>
+        <v>81689482445317619056640</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>836.806715075982</v>
+        <v>-1978.57694310382</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3067.67883928309</v>
+        <v>299.220325828474</v>
       </c>
       <c r="C14" t="n">
-        <v>-291581580141661356032</v>
+        <v>-1521935208956455324483584</v>
       </c>
       <c r="D14" t="n">
-        <v>-445935544848777674752</v>
+        <v>-2327599042095884005277696</v>
       </c>
       <c r="E14" t="n">
-        <v>291581580141661356032</v>
+        <v>1521935208956455324483584</v>
       </c>
       <c r="F14" t="n">
-        <v>445935544848777674752</v>
+        <v>2327599042095884005277696</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>762.678839283093</v>
+        <v>-2005.77967417153</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2912.74988295901</v>
+        <v>129.920294648511</v>
       </c>
       <c r="C15" t="n">
-        <v>-4541897317076396146688</v>
+        <v>-50341644759619374596227072</v>
       </c>
       <c r="D15" t="n">
-        <v>-6946232521799393869824</v>
+        <v>-76990901735143366216122368</v>
       </c>
       <c r="E15" t="n">
-        <v>4541897317076396146688</v>
+        <v>50341644759619374596227072</v>
       </c>
       <c r="F15" t="n">
-        <v>6946232521799393869824</v>
+        <v>76990901735143366216122368</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +864,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>1039.74988295901</v>
+        <v>-1743.07970535149</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3368.51175358717</v>
+        <v>63.1603030788903</v>
       </c>
       <c r="C16" t="n">
-        <v>-168394911075449736003584</v>
+        <v>-3887988962045037844078002176</v>
       </c>
       <c r="D16" t="n">
-        <v>-257537792283411746914304</v>
+        <v>-5946165993452829799752925184</v>
       </c>
       <c r="E16" t="n">
-        <v>168394911075449736003584</v>
+        <v>3887988962045037844078002176</v>
       </c>
       <c r="F16" t="n">
-        <v>257537792283411746914304</v>
+        <v>5946165993452829799752925184</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +896,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>483.511753587167</v>
+        <v>-2821.83969692111</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3393.73932063347</v>
+        <v>-108.682958496812</v>
       </c>
       <c r="C17" t="n">
-        <v>-3566855963540820160675840</v>
+        <v>-178053299564266220956061532160</v>
       </c>
       <c r="D17" t="n">
-        <v>-5455035454317518643003392</v>
+        <v>-272309022794711582209556348928</v>
       </c>
       <c r="E17" t="n">
-        <v>3566855963540820160675840</v>
+        <v>178053299564266220956061532160</v>
       </c>
       <c r="F17" t="n">
-        <v>5455035454317518643003392</v>
+        <v>272309022794711582209556348928</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +928,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>585.739320633469</v>
+        <v>-2916.68295849681</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3473.02584759066</v>
+        <v>-286.435490074541</v>
       </c>
       <c r="C18" t="n">
-        <v>-71357756244728424362409984</v>
+        <v>-7792544148209211574779153219584</v>
       </c>
       <c r="D18" t="n">
-        <v>-109132270614348879806595072</v>
+        <v>-11917667840340108550131278675968</v>
       </c>
       <c r="E18" t="n">
-        <v>71357756244728424362409984</v>
+        <v>7792544148209211574779153219584</v>
       </c>
       <c r="F18" t="n">
-        <v>109132270614348879806595072</v>
+        <v>11917667840340108550131278675968</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +960,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>925.025847590659</v>
+        <v>-2834.43549007454</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>3478.39322592463</v>
+        <v>-386.549208799344</v>
       </c>
       <c r="C19" t="n">
-        <v>-1396305188910789806507687936</v>
+        <v>-238805270115111397203293887266816</v>
       </c>
       <c r="D19" t="n">
-        <v>-2135464506672869204245348352</v>
+        <v>-365221143906977966965268349452288</v>
       </c>
       <c r="E19" t="n">
-        <v>1396305188910789806507687936</v>
+        <v>238805270115111397203293887266816</v>
       </c>
       <c r="F19" t="n">
-        <v>2135464506672869204245348352</v>
+        <v>365221143906977966965268349452288</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +992,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>1011.39322592463</v>
+        <v>-2853.54920879934</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>3411.4617498825</v>
+        <v>-357.956437740955</v>
       </c>
       <c r="C20" t="n">
-        <v>-17936342707846395947483398144</v>
+        <v>-5406004816228026281297330040733696</v>
       </c>
       <c r="D20" t="n">
-        <v>-27431268992135690952349057024</v>
+        <v>-8267770899686248109494231195713536</v>
       </c>
       <c r="E20" t="n">
-        <v>17936342707846395947483398144</v>
+        <v>5406004816228026281297330040733696</v>
       </c>
       <c r="F20" t="n">
-        <v>27431268992135690952349057024</v>
+        <v>8267770899686248109494231195713536</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>845.461749882502</v>
+        <v>-2923.95643774095</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>3199.806346053</v>
+        <v>-361.059839997604</v>
       </c>
       <c r="C21" t="n">
-        <v>-192553098038064951000035229696</v>
+        <v>-126184699052966653811396957140156416</v>
       </c>
       <c r="D21" t="n">
-        <v>-294484550924676139438649114624</v>
+        <v>-192982843759971118806397786299301888</v>
       </c>
       <c r="E21" t="n">
-        <v>192553098038064951000035229696</v>
+        <v>126184699052966653811396957140156416</v>
       </c>
       <c r="F21" t="n">
-        <v>294484550924676139438649114624</v>
+        <v>192982843759971118806397786299301888</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1056,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>1183.806346053</v>
+        <v>-2377.0598399976</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4547.18815566725</v>
+        <v>-3567.43685730477</v>
       </c>
       <c r="C22" t="n">
-        <v>-13505387910507889914547248562176</v>
+        <v>-31449953911105158057946054067421708288</v>
       </c>
       <c r="D22" t="n">
-        <v>-20654708412446550870139433123840</v>
+        <v>-48098553845561572291919035639340728320</v>
       </c>
       <c r="E22" t="n">
-        <v>13505387910507889914547248562176</v>
+        <v>31449953911105158057946054067421708288</v>
       </c>
       <c r="F22" t="n">
-        <v>20654708412446550870139433123840</v>
+        <v>48098553845561572291919035639340728320</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1088,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>2226.18815566725</v>
+        <v>-5888.43685730477</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3853.04814617598</v>
+        <v>-1896.61006733945</v>
       </c>
       <c r="C23" t="n">
-        <v>-147376130159768555050517712076800</v>
+        <v>-341217038525323335984853271862031941632</v>
       </c>
       <c r="D23" t="n">
-        <v>-225392340862448790242749969334272</v>
+        <v>-521846427722049423998013598861629587456</v>
       </c>
       <c r="E23" t="n">
-        <v>147376130159768555050517712076800</v>
+        <v>341217038525323335984853271862031941632</v>
       </c>
       <c r="F23" t="n">
-        <v>225392340862448790242749969334272</v>
+        <v>521846427722049423998013598861629587456</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1120,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>1859.04814617598</v>
+        <v>-3890.61006733945</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3770.62501575019</v>
+        <v>-2027.7682273275</v>
       </c>
       <c r="C24" t="n">
-        <v>-2314937749754196635240740279025664</v>
+        <v>-9617788962933966267121274741512252424192</v>
       </c>
       <c r="D24" t="n">
-        <v>-3540391770378994382200428327600128</v>
+        <v>-14709138894654464069726817069228091244544</v>
       </c>
       <c r="E24" t="n">
-        <v>2314937749754196635240740279025664</v>
+        <v>9617788962933966267121274741512252424192</v>
       </c>
       <c r="F24" t="n">
-        <v>3540391770378994382200428327600128</v>
+        <v>14709138894654464069726817069228091244544</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1552.62501575019</v>
+        <v>-4245.7682273275</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3500.70970559201</v>
+        <v>-1735.13880654042</v>
       </c>
       <c r="C25" t="n">
-        <v>-39954672010289391469408560273686528</v>
+        <v>-232570476765831907567070736071118897020928</v>
       </c>
       <c r="D25" t="n">
-        <v>-61105397753542370185240814760755200</v>
+        <v>-355685850326774120775843603117348367630336</v>
       </c>
       <c r="E25" t="n">
-        <v>39954672010289391469408560273686528</v>
+        <v>232570476765831907567070736071118897020928</v>
       </c>
       <c r="F25" t="n">
-        <v>61105397753542370185240814760755200</v>
+        <v>355685850326774120775843603117348367630336</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>987.70970559201</v>
+        <v>-4248.13880654042</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3133.62625762738</v>
+        <v>-1119.96181242635</v>
       </c>
       <c r="C26" t="n">
-        <v>-475609856359202004882129773465174016</v>
+        <v>-2859870808901188675491781049969759223808000</v>
       </c>
       <c r="D26" t="n">
-        <v>-727382505876906441188451915061526528</v>
+        <v>-4373794965871536113396951873684365761314816</v>
       </c>
       <c r="E26" t="n">
-        <v>475609856359202004882129773465174016</v>
+        <v>2859870808901188675491781049969759223808000</v>
       </c>
       <c r="F26" t="n">
-        <v>727382505876906441188451915061526528</v>
+        <v>4373794965871536113396951873684365761314816</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1322.62625762738</v>
+        <v>-2930.96181242635</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2968.8082005554</v>
+        <v>-930.01111145683</v>
       </c>
       <c r="C27" t="n">
-        <v>-6985107638546675987904459645028139008</v>
+        <v>-55379773269547093129688320428235526613499904</v>
       </c>
       <c r="D27" t="n">
-        <v>-10682800261626028900230413978586578944</v>
+        <v>-84696054375448205899153107830968483265380352</v>
       </c>
       <c r="E27" t="n">
-        <v>6985107638546675987904459645028139008</v>
+        <v>55379773269547093129688320428235526613499904</v>
       </c>
       <c r="F27" t="n">
-        <v>10682800261626028900230413978586578944</v>
+        <v>84696054375448205899153107830968483265380352</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>1407.8082005554</v>
+        <v>-2491.01111145683</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3447.18746237836</v>
+        <v>-1742.6877872812</v>
       </c>
       <c r="C28" t="n">
-        <v>-223599862308037072375457372056443682816</v>
+        <v>-3064057881898876755256989526170614486819405824</v>
       </c>
       <c r="D28" t="n">
-        <v>-341966479425767413899694289326354464768</v>
+        <v>-4686072146083206182849861421162361388510740480</v>
       </c>
       <c r="E28" t="n">
-        <v>223599862308037072375457372056443682816</v>
+        <v>3064057881898876755256989526170614486819405824</v>
       </c>
       <c r="F28" t="n">
-        <v>341966479425767413899694289326354464768</v>
+        <v>4686072146083206182849861421162361388510740480</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>888.187462378357</v>
+        <v>-4301.6877872812</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3467.36039347833</v>
+        <v>-2200.18678896121</v>
       </c>
       <c r="C29" t="n">
-        <v>-4411607143689350831737557359414235627520</v>
+        <v>-108006472779095024939712904384535236900366057472</v>
       </c>
       <c r="D29" t="n">
-        <v>-6746970896872449148357899965047324540928</v>
+        <v>-165181645776597285228672354103875232117666349056</v>
       </c>
       <c r="E29" t="n">
-        <v>4411607143689350831737557359414235627520</v>
+        <v>108006472779095024939712904384535236900366057472</v>
       </c>
       <c r="F29" t="n">
-        <v>6746970896872449148357899965047324540928</v>
+        <v>165181645776597285228672354103875232117666349056</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1012.36039347833</v>
+        <v>-4655.18678896121</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>3541.27284194524</v>
+        <v>-2358.27884317617</v>
       </c>
       <c r="C30" t="n">
-        <v>-45227030408970949782836906594635087872000</v>
+        <v>-3064820786865039525100515733805301866190516256768</v>
       </c>
       <c r="D30" t="n">
-        <v>-69168774095805893584085530463077046157312</v>
+        <v>-4687238908543263862755060959890084571014020202496</v>
       </c>
       <c r="E30" t="n">
-        <v>45227030408970949782836906594635087872000</v>
+        <v>3064820786865039525100515733805301866190516256768</v>
       </c>
       <c r="F30" t="n">
-        <v>69168774095805893584085530463077046157312</v>
+        <v>4687238908543263862755060959890084571014020202496</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>1032.27284194524</v>
+        <v>-4867.27884317617</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>3535.9354808047</v>
+        <v>-2113.02952991893</v>
       </c>
       <c r="C31" t="n">
-        <v>-827180460135848089041054512079728606707712</v>
+        <v>-83134809510052366224972430407698064240802330050560</v>
       </c>
       <c r="D31" t="n">
-        <v>-1265063345221366343662781062399084386582528</v>
+        <v>-127143719286908305840860983381985697788458900127744</v>
       </c>
       <c r="E31" t="n">
-        <v>827180460135848089041054512079728606707712</v>
+        <v>83134809510052366224972430407698064240802330050560</v>
       </c>
       <c r="F31" t="n">
-        <v>1265063345221366343662781062399084386582528</v>
+        <v>127143719286908305840860983381985697788458900127744</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>630.9354808047</v>
+        <v>-5018.02952991893</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>3456.56330675843</v>
+        <v>-1516.7674659393</v>
       </c>
       <c r="C32" t="n">
-        <v>-14598492939208876120518451175409008248881152</v>
+        <v>-1206119247232217634812784364252809039345742069628928</v>
       </c>
       <c r="D32" t="n">
-        <v>-22326468289438403193378573269861232736731136</v>
+        <v>-1844600208990526991112776471315876654469873127129088</v>
       </c>
       <c r="E32" t="n">
-        <v>14598492939208876120518451175409008248881152</v>
+        <v>1206119247232217634812784364252809039345742069628928</v>
       </c>
       <c r="F32" t="n">
-        <v>22326468289438403193378573269861232736731136</v>
+        <v>1844600208990526991112776471315876654469873127129088</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>827.563306758426</v>
+        <v>-4145.7674659393</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>3232.5045637928</v>
+        <v>-1279.14526169915</v>
       </c>
       <c r="C33" t="n">
-        <v>-222280087564831583383156065632990737639407616</v>
+        <v>-21034525517494570948737091723663066598073220420599808</v>
       </c>
       <c r="D33" t="n">
-        <v>-339948058135564267727588401974613455994355712</v>
+        <v>-32169530711515725710382187654730622560949513092071424</v>
       </c>
       <c r="E33" t="n">
-        <v>222280087564831583383156065632990737639407616</v>
+        <v>21034525517494570948737091723663066598073220420599808</v>
       </c>
       <c r="F33" t="n">
-        <v>339948058135564267727588401974613455994355712</v>
+        <v>32169530711515725710382187654730622560949513092071424</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>965.504563792802</v>
+        <v>-3546.14526169915</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4692.49729669796</v>
+        <v>-11045.9257847863</v>
       </c>
       <c r="C34" t="n">
-        <v>-12300467876327393087433978100073821913799983104</v>
+        <v>-4362134563885667370530673509863331105925572359536771072</v>
       </c>
       <c r="D34" t="n">
-        <v>-18811942241550437439783858769877292070750650368</v>
+        <v>-6671309115291074816904211932937895388832319372911443968</v>
       </c>
       <c r="E34" t="n">
-        <v>12300467876327393087433978100073821913799983104</v>
+        <v>4362134563885667370530673509863331105925572359536771072</v>
       </c>
       <c r="F34" t="n">
-        <v>18811942241550437439783858769877292070750650368</v>
+        <v>6671309115291074816904211932937895388832319372911443968</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1472,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>2419.49729669796</v>
+        <v>-13318.9257847863</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3963.14230146103</v>
+        <v>-5282.43680293937</v>
       </c>
       <c r="C35" t="n">
-        <v>-155263639367524918412058693568922917946819346432</v>
+        <v>-37224155359558101536726127779067071376985130706793398272</v>
       </c>
       <c r="D35" t="n">
-        <v>-237455245228190066723655127811993264859759247360</v>
+        <v>-56929432900855361227284712303747598756601814915987013632</v>
       </c>
       <c r="E35" t="n">
-        <v>155263639367524918412058693568922917946819346432</v>
+        <v>37224155359558101536726127779067071376985130706793398272</v>
       </c>
       <c r="F35" t="n">
-        <v>237455245228190066723655127811993264859759247360</v>
+        <v>56929432900855361227284712303747598756601814915987013632</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1504,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>1954.14230146103</v>
+        <v>-7291.43680293937</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3882.54329726794</v>
+        <v>-5182.90927895741</v>
       </c>
       <c r="C36" t="n">
-        <v>-3154167111186193363437681088172033612461048332288</v>
+        <v>-1045742821184095360043486520305836822563418034861464616960</v>
       </c>
       <c r="D36" t="n">
-        <v>-4823882319958458242232530806147082129111485775872</v>
+        <v>-1599325631303132699706485766697896429212229950344217493504</v>
       </c>
       <c r="E36" t="n">
-        <v>3154167111186193363437681088172033612461048332288</v>
+        <v>1045742821184095360043486520305836822563418034861464616960</v>
       </c>
       <c r="F36" t="n">
-        <v>4823882319958458242232530806147082129111485775872</v>
+        <v>1599325631303132699706485766697896429212229950344217493504</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2144.54329726794</v>
+        <v>-6920.90927895741</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3590.02482752119</v>
+        <v>-4129.72366861243</v>
       </c>
       <c r="C37" t="n">
-        <v>-37592817127059390791125151573319171662490361659392</v>
+        <v>-18274081305088098075521189169220050642189112444090845233152</v>
       </c>
       <c r="D37" t="n">
-        <v>-57493252419481095805829357864377490468089976848384</v>
+        <v>-27947795602987683370830021729888733953795766812673912602624</v>
       </c>
       <c r="E37" t="n">
-        <v>37592817127059390791125151573319171662490361659392</v>
+        <v>18274081305088098075521189169220050642189112444090845233152</v>
       </c>
       <c r="F37" t="n">
-        <v>57493252419481095805829357864377490468089976848384</v>
+        <v>27947795602987683370830021729888733953795766812673912602624</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1568,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>2021.02482752119</v>
+        <v>-5698.72366861243</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3204.58180694664</v>
+        <v>-2573.60713151217</v>
       </c>
       <c r="C38" t="n">
-        <v>-444640493195820657178631847360364063390877876224000</v>
+        <v>-231294795857753248339807362906288592213991879834448580050944</v>
       </c>
       <c r="D38" t="n">
-        <v>-680018952153202245952889384924908093405538256158720</v>
+        <v>-353734864738038153841998909178316090559237913698154569531392</v>
       </c>
       <c r="E38" t="n">
-        <v>444640493195820657178631847360364063390877876224000</v>
+        <v>231294795857753248339807362906288592213991879834448580050944</v>
       </c>
       <c r="F38" t="n">
-        <v>680018952153202245952889384924908093405538256158720</v>
+        <v>353734864738038153841998909178316090559237913698154569531392</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1600,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>2048.58180694664</v>
+        <v>-3729.60713151217</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3028.93296888132</v>
+        <v>-2017.18881422961</v>
       </c>
       <c r="C39" t="n">
-        <v>-7319646999969959784735556751318663956067064521687040</v>
+        <v>-3324351154296303428574624700389281293239582116929451396694016</v>
       </c>
       <c r="D39" t="n">
-        <v>-11194434063518369812487097660086914753052201759801344</v>
+        <v>-5084156353565121174011868221246416732591673047097559683694592</v>
       </c>
       <c r="E39" t="n">
-        <v>7319646999969959784735556751318663956067064521687040</v>
+        <v>3324351154296303428574624700389281293239582116929451396694016</v>
       </c>
       <c r="F39" t="n">
-        <v>11194434063518369812487097660086914753052201759801344</v>
+        <v>5084156353565121174011868221246416732591673047097559683694592</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1632,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>1070.93296888132</v>
+        <v>-3975.18881422961</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3532.07532928138</v>
+        <v>-3597.50480465335</v>
       </c>
       <c r="C40" t="n">
-        <v>-217120505804819496029771118058865854247519928209899520</v>
+        <v>-158255280958161055388809909283957042522108292745704194361524224</v>
       </c>
       <c r="D40" t="n">
-        <v>-332057158778255885623821926364516598902819910640992256</v>
+        <v>-242030566214050859338086174457187626632406397378637903626764288</v>
       </c>
       <c r="E40" t="n">
-        <v>217120505804819496029771118058865854247519928209899520</v>
+        <v>158255280958161055388809909283957042522108292745704194361524224</v>
       </c>
       <c r="F40" t="n">
-        <v>332057158778255885623821926364516598902819910640992256</v>
+        <v>242030566214050859338086174457187626632406397378637903626764288</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1664,297 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1324.07532928138</v>
+        <v>-5805.50480465335</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-4351.33482477117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-6201486071729226132090163191380179249480377156904347501517078528</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-9484354494975684067644628314160671504123094504292266356271742976</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6201486071729226132090163191380179249480377156904347501517078528</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9484354494975684067644628314160671504123094504292266356271742976</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2210</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-6561.33482477117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-4492.08563409323</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-174123502878526158647111409718157392792646824224605805218428354560</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-266298917405513091065645418353832917740175111848943766849619755008</v>
+      </c>
+      <c r="E42" t="n">
+        <v>174123502878526158647111409718157392792646824224605805218428354560</v>
+      </c>
+      <c r="F42" t="n">
+        <v>266298917405513091065645418353832917740175111848943766849619755008</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2311</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-6803.08563409323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-3893.52628830757</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3938492346499809986377324017851334949876313197575425622221286014976</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-6023404254705836172452209210712393098892604666353967945278765924352</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3938492346499809986377324017851334949876313197575425622221286014976</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6023404254705836172452209210712393098892604666353967945278765924352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4985</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-8878.52628830757</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-2713.42108020081</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-37842990997174535798598219757290146058269407053887032326048509329408</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-57875860336697690707057678097479277421193326708903273504675670786048</v>
+      </c>
+      <c r="E44" t="n">
+        <v>37842990997174535798598219757290146058269407053887032326048509329408</v>
+      </c>
+      <c r="F44" t="n">
+        <v>57875860336697690707057678097479277421193326708903273504675670786048</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13425</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-16138.4210802008</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-2228.45990983942</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-475281754849013451510622180299309425603530088570958535032440503664640</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-726880717918831196534459007479826836156355613335268520541786497613824</v>
+      </c>
+      <c r="E45" t="n">
+        <v>475281754849013451510622180299309425603530088570958535032440503664640</v>
+      </c>
+      <c r="F45" t="n">
+        <v>726880717918831196534459007479826836156355613335268520541786497613824</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12742</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-14970.4599098394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-18788.8897295196</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-56116759296664861581972558422999419713553990138125510035692666849591296</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-85823177238933015532303548019158081272209113040815897701965198197260288</v>
+      </c>
+      <c r="E46" t="n">
+        <v>56116759296664861581972558422999419713553990138125510035692666849591296</v>
+      </c>
+      <c r="F46" t="n">
+        <v>85823177238933015532303548019158081272209113040815897701965198197260288</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>125264</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-144052.88972952</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-8792.53693162892</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-334567741057046272643829515277721895432367990898955552147219383733714944</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-511677204796729004683836148091823289886341368729620055205982231943184384</v>
+      </c>
+      <c r="E47" t="n">
+        <v>334567741057046272643829515277721895432367990898955552147219383733714944</v>
+      </c>
+      <c r="F47" t="n">
+        <v>511677204796729004683836148091823289886341368729620055205982231943184384</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>23111</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-31903.5369316289</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-8458.05112368775</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-7144515533684743346421554388983056068114879278424813124507884051310313472</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-10926593599110018830312602386331360953539431897346878182753441516334612480</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7144515533684743346421554388983056068114879278424813124507884051310313472</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10926593599110018830312602386331360953539431897346878182753441516334612480</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4940</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-13398.0511236878</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-6618.54290602818</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-152517597672706265408484260081787792926902655658318526212849059895200186368</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-233255536869515705558082317213685018317276634346029495053456558174257545216</v>
+      </c>
+      <c r="E49" t="n">
+        <v>152517597672706265408484260081787792926902655658318526212849059895200186368</v>
+      </c>
+      <c r="F49" t="n">
+        <v>233255536869515705558082317213685018317276634346029495053456558174257545216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3873</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-10491.5429060282</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/AHC.xlsx
+++ b/outcome/appendix/data/forecast/AHC.xlsx
@@ -462,16 +462,16 @@
         <v>1179.7963372841</v>
       </c>
       <c r="C3" t="n">
-        <v>-64207.8918644531</v>
+        <v>-22874.0983597031</v>
       </c>
       <c r="D3" t="n">
-        <v>-98822.0431152536</v>
+        <v>-35607.4610478524</v>
       </c>
       <c r="E3" t="n">
-        <v>66567.4845390213</v>
+        <v>25233.6910342713</v>
       </c>
       <c r="F3" t="n">
-        <v>101181.635789822</v>
+        <v>37967.0537224206</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1849.35750551692</v>
       </c>
       <c r="C4" t="n">
-        <v>-7097080.55220601</v>
+        <v>-1139510.14523813</v>
       </c>
       <c r="D4" t="n">
-        <v>-10855027.0459782</v>
+        <v>-1743709.36906782</v>
       </c>
       <c r="E4" t="n">
-        <v>7100779.26721704</v>
+        <v>1143208.86024917</v>
       </c>
       <c r="F4" t="n">
-        <v>10858725.7609892</v>
+        <v>1747408.08407885</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1957.16584813172</v>
       </c>
       <c r="C5" t="n">
-        <v>-507259707.666757</v>
+        <v>-32827103.9773025</v>
       </c>
       <c r="D5" t="n">
-        <v>-775787812.469554</v>
+        <v>-50205759.1810906</v>
       </c>
       <c r="E5" t="n">
-        <v>507263621.998454</v>
+        <v>32831018.3089988</v>
       </c>
       <c r="F5" t="n">
-        <v>775791726.80125</v>
+        <v>50209673.5127869</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1757.14704539784</v>
       </c>
       <c r="C6" t="n">
-        <v>-34378455285.5631</v>
+        <v>-1009033958.75048</v>
       </c>
       <c r="D6" t="n">
-        <v>-52577311133.9932</v>
+        <v>-1543185201.1033</v>
       </c>
       <c r="E6" t="n">
-        <v>34378458799.8572</v>
+        <v>1009037473.04457</v>
       </c>
       <c r="F6" t="n">
-        <v>52577314648.2873</v>
+        <v>1543188715.39739</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1314.02653020476</v>
       </c>
       <c r="C7" t="n">
-        <v>-1631066080560.32</v>
+        <v>-11461605773.9504</v>
       </c>
       <c r="D7" t="n">
-        <v>-2494500308176.11</v>
+        <v>-17529014061.8296</v>
       </c>
       <c r="E7" t="n">
-        <v>1631066083188.37</v>
+        <v>11461608402.0035</v>
       </c>
       <c r="F7" t="n">
-        <v>2494500310804.16</v>
+        <v>17529016689.8826</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>781.898791282622</v>
       </c>
       <c r="C8" t="n">
-        <v>-59555333255819.8</v>
+        <v>-141045396691.033</v>
       </c>
       <c r="D8" t="n">
-        <v>-91082022298193.2</v>
+        <v>-215710319945.31</v>
       </c>
       <c r="E8" t="n">
-        <v>59555333257383.5</v>
+        <v>141045398254.83</v>
       </c>
       <c r="F8" t="n">
-        <v>91082022299757</v>
+        <v>215710321509.108</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>540.773969634442</v>
       </c>
       <c r="C9" t="n">
-        <v>-2932899576121132</v>
+        <v>-4048489127426.93</v>
       </c>
       <c r="D9" t="n">
-        <v>-4485482827238229</v>
+        <v>-6191629814406.78</v>
       </c>
       <c r="E9" t="n">
-        <v>2932899576122214</v>
+        <v>4048489128508.48</v>
       </c>
       <c r="F9" t="n">
-        <v>4485482827239311</v>
+        <v>6191629815488.33</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>3768.69628138122</v>
       </c>
       <c r="C10" t="n">
-        <v>-1424901120690638592</v>
+        <v>-458673003598238</v>
       </c>
       <c r="D10" t="n">
-        <v>-2179198210333129472</v>
+        <v>-701479824851126</v>
       </c>
       <c r="E10" t="n">
-        <v>1424901120690646272</v>
+        <v>458673003605775</v>
       </c>
       <c r="F10" t="n">
-        <v>2179198210333137152</v>
+        <v>701479824858663</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1420.28365861135</v>
       </c>
       <c r="C11" t="n">
-        <v>-32032586916673249280</v>
+        <v>-4750423613797330</v>
       </c>
       <c r="D11" t="n">
-        <v>-48989614133590253568</v>
+        <v>-7265145972020046</v>
       </c>
       <c r="E11" t="n">
-        <v>32032586916673249280</v>
+        <v>4750423613800170</v>
       </c>
       <c r="F11" t="n">
-        <v>48989614133590253568</v>
+        <v>7265145972022886</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1058.98990201872</v>
       </c>
       <c r="C12" t="n">
-        <v>-1442972417837725122560</v>
+        <v>-70868985774692816</v>
       </c>
       <c r="D12" t="n">
-        <v>-2206835874329238175744</v>
+        <v>-108384760686748960</v>
       </c>
       <c r="E12" t="n">
-        <v>1442972417837725122560</v>
+        <v>70868985774694928</v>
       </c>
       <c r="F12" t="n">
-        <v>2206835874329238175744</v>
+        <v>108384760686751072</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>604.423056896176</v>
       </c>
       <c r="C13" t="n">
-        <v>-53413881551957444788224</v>
+        <v>-1317833673850312448</v>
       </c>
       <c r="D13" t="n">
-        <v>-81689482445317619056640</v>
+        <v>-2015452680800322816</v>
       </c>
       <c r="E13" t="n">
-        <v>53413881551957444788224</v>
+        <v>1317833673850313472</v>
       </c>
       <c r="F13" t="n">
-        <v>81689482445317619056640</v>
+        <v>2015452680800323840</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>299.220325828474</v>
       </c>
       <c r="C14" t="n">
-        <v>-1521935208956455324483584</v>
+        <v>-13947099634977011712</v>
       </c>
       <c r="D14" t="n">
-        <v>-2327599042095884005277696</v>
+        <v>-21330248199361531904</v>
       </c>
       <c r="E14" t="n">
-        <v>1521935208956455324483584</v>
+        <v>13947099634977011712</v>
       </c>
       <c r="F14" t="n">
-        <v>2327599042095884005277696</v>
+        <v>21330248199361531904</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>129.920294648511</v>
       </c>
       <c r="C15" t="n">
-        <v>-50341644759619374596227072</v>
+        <v>-240345934232561156096</v>
       </c>
       <c r="D15" t="n">
-        <v>-76990901735143366216122368</v>
+        <v>-367577386342834634752</v>
       </c>
       <c r="E15" t="n">
-        <v>50341644759619374596227072</v>
+        <v>240345934232561156096</v>
       </c>
       <c r="F15" t="n">
-        <v>76990901735143366216122368</v>
+        <v>367577386342834634752</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>63.1603030788903</v>
       </c>
       <c r="C16" t="n">
-        <v>-3887988962045037844078002176</v>
+        <v>-7443267036843868160000</v>
       </c>
       <c r="D16" t="n">
-        <v>-5946165993452829799752925184</v>
+        <v>-11383494594951150305280</v>
       </c>
       <c r="E16" t="n">
-        <v>3887988962045037844078002176</v>
+        <v>7443267036843868160000</v>
       </c>
       <c r="F16" t="n">
-        <v>5946165993452829799752925184</v>
+        <v>11383494594951150305280</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>-108.682958496812</v>
       </c>
       <c r="C17" t="n">
-        <v>-178053299564266220956061532160</v>
+        <v>-246532154307403141087232</v>
       </c>
       <c r="D17" t="n">
-        <v>-272309022794711582209556348928</v>
+        <v>-377038393510327356489728</v>
       </c>
       <c r="E17" t="n">
-        <v>178053299564266220956061532160</v>
+        <v>246532154307403141087232</v>
       </c>
       <c r="F17" t="n">
-        <v>272309022794711582209556348928</v>
+        <v>377038393510327356489728</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>-286.435490074541</v>
       </c>
       <c r="C18" t="n">
-        <v>-7792544148209211574779153219584</v>
+        <v>-5069400876188746471440384</v>
       </c>
       <c r="D18" t="n">
-        <v>-11917667840340108550131278675968</v>
+        <v>-7752979597277037145882624</v>
       </c>
       <c r="E18" t="n">
-        <v>7792544148209211574779153219584</v>
+        <v>5069400876188746471440384</v>
       </c>
       <c r="F18" t="n">
-        <v>11917667840340108550131278675968</v>
+        <v>7752979597277037145882624</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>-386.549208799344</v>
       </c>
       <c r="C19" t="n">
-        <v>-238805270115111397203293887266816</v>
+        <v>-71345860942921479546208256</v>
       </c>
       <c r="D19" t="n">
-        <v>-365221143906977966965268349452288</v>
+        <v>-109114078320137964401721344</v>
       </c>
       <c r="E19" t="n">
-        <v>238805270115111397203293887266816</v>
+        <v>71345860942921479546208256</v>
       </c>
       <c r="F19" t="n">
-        <v>365221143906977966965268349452288</v>
+        <v>109114078320137964401721344</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>-357.956437740955</v>
       </c>
       <c r="C20" t="n">
-        <v>-5406004816228026281297330040733696</v>
+        <v>-1798426769884215813297143808</v>
       </c>
       <c r="D20" t="n">
-        <v>-8267770899686248109494231195713536</v>
+        <v>-2750456394088103198146428928</v>
       </c>
       <c r="E20" t="n">
-        <v>5406004816228026281297330040733696</v>
+        <v>1798426769884215813297143808</v>
       </c>
       <c r="F20" t="n">
-        <v>8267770899686248109494231195713536</v>
+        <v>2750456394088103198146428928</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>-361.059839997604</v>
       </c>
       <c r="C21" t="n">
-        <v>-126184699052966653811396957140156416</v>
+        <v>-67796643602923742293951250432</v>
       </c>
       <c r="D21" t="n">
-        <v>-192982843759971118806397786299301888</v>
+        <v>-103686018812642071878018531328</v>
       </c>
       <c r="E21" t="n">
-        <v>126184699052966653811396957140156416</v>
+        <v>67796643602923742293951250432</v>
       </c>
       <c r="F21" t="n">
-        <v>192982843759971118806397786299301888</v>
+        <v>103686018812642071878018531328</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>-3567.43685730477</v>
       </c>
       <c r="C22" t="n">
-        <v>-31449953911105158057946054067421708288</v>
+        <v>-11303960164858061320705225523200</v>
       </c>
       <c r="D22" t="n">
-        <v>-48098553845561572291919035639340728320</v>
+        <v>-17287915212668199659414805807104</v>
       </c>
       <c r="E22" t="n">
-        <v>31449953911105158057946054067421708288</v>
+        <v>11303960164858061320705225523200</v>
       </c>
       <c r="F22" t="n">
-        <v>48098553845561572291919035639340728320</v>
+        <v>17287915212668199659414805807104</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>-1896.61006733945</v>
       </c>
       <c r="C23" t="n">
-        <v>-341217038525323335984853271862031941632</v>
+        <v>-167250169239544164608263132807168</v>
       </c>
       <c r="D23" t="n">
-        <v>-521846427722049423998013598861629587456</v>
+        <v>-255787060724656423655869343858688</v>
       </c>
       <c r="E23" t="n">
-        <v>341217038525323335984853271862031941632</v>
+        <v>167250169239544164608263132807168</v>
       </c>
       <c r="F23" t="n">
-        <v>521846427722049423998013598861629587456</v>
+        <v>255787060724656423655869343858688</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>-2027.7682273275</v>
       </c>
       <c r="C24" t="n">
-        <v>-9617788962933966267121274741512252424192</v>
+        <v>-3891057100978388972918241987919872</v>
       </c>
       <c r="D24" t="n">
-        <v>-14709138894654464069726817069228091244544</v>
+        <v>-5950858307028505155759434155163648</v>
       </c>
       <c r="E24" t="n">
-        <v>9617788962933966267121274741512252424192</v>
+        <v>3891057100978388972918241987919872</v>
       </c>
       <c r="F24" t="n">
-        <v>14709138894654464069726817069228091244544</v>
+        <v>5950858307028505155759434155163648</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>-1735.13880654042</v>
       </c>
       <c r="C25" t="n">
-        <v>-232570476765831907567070736071118897020928</v>
+        <v>-100035358685545401951695916761088000</v>
       </c>
       <c r="D25" t="n">
-        <v>-355685850326774120775843603117348367630336</v>
+        <v>-152990878771933054191972064121847808</v>
       </c>
       <c r="E25" t="n">
-        <v>232570476765831907567070736071118897020928</v>
+        <v>100035358685545401951695916761088000</v>
       </c>
       <c r="F25" t="n">
-        <v>355685850326774120775843603117348367630336</v>
+        <v>152990878771933054191972064121847808</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>-1119.96181242635</v>
       </c>
       <c r="C26" t="n">
-        <v>-2859870808901188675491781049969759223808000</v>
+        <v>-883996219372344658841821360383066112</v>
       </c>
       <c r="D26" t="n">
-        <v>-4373794965871536113396951873684365761314816</v>
+        <v>-1351955550616559127862246391161028608</v>
       </c>
       <c r="E26" t="n">
-        <v>2859870808901188675491781049969759223808000</v>
+        <v>883996219372344658841821360383066112</v>
       </c>
       <c r="F26" t="n">
-        <v>4373794965871536113396951873684365761314816</v>
+        <v>1351955550616559127862246391161028608</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>-930.01111145683</v>
       </c>
       <c r="C27" t="n">
-        <v>-55379773269547093129688320428235526613499904</v>
+        <v>-20216294878134549538112822126498021376</v>
       </c>
       <c r="D27" t="n">
-        <v>-84696054375448205899153107830968483265380352</v>
+        <v>-30918154936003081727123758918104252416</v>
       </c>
       <c r="E27" t="n">
-        <v>55379773269547093129688320428235526613499904</v>
+        <v>20216294878134549538112822126498021376</v>
       </c>
       <c r="F27" t="n">
-        <v>84696054375448205899153107830968483265380352</v>
+        <v>30918154936003081727123758918104252416</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>-1742.6877872812</v>
       </c>
       <c r="C28" t="n">
-        <v>-3064057881898876755256989526170614486819405824</v>
+        <v>-658296461710686182528736421639679377408</v>
       </c>
       <c r="D28" t="n">
-        <v>-4686072146083206182849861421162361388510740480</v>
+        <v>-1006777558384709695992959375965591437312</v>
       </c>
       <c r="E28" t="n">
-        <v>3064057881898876755256989526170614486819405824</v>
+        <v>658296461710686182528736421639679377408</v>
       </c>
       <c r="F28" t="n">
-        <v>4686072146083206182849861421162361388510740480</v>
+        <v>1006777558384709695992959375965591437312</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>-2200.18678896121</v>
       </c>
       <c r="C29" t="n">
-        <v>-108006472779095024939712904384535236900366057472</v>
+        <v>-26502723646688054100466034481936084238336</v>
       </c>
       <c r="D29" t="n">
-        <v>-165181645776597285228672354103875232117666349056</v>
+        <v>-40532418075313761192088206736530601934848</v>
       </c>
       <c r="E29" t="n">
-        <v>108006472779095024939712904384535236900366057472</v>
+        <v>26502723646688054100466034481936084238336</v>
       </c>
       <c r="F29" t="n">
-        <v>165181645776597285228672354103875232117666349056</v>
+        <v>40532418075313761192088206736530601934848</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>-2358.27884317617</v>
       </c>
       <c r="C30" t="n">
-        <v>-3064820786865039525100515733805301866190516256768</v>
+        <v>-696835543183708570511513083290902041985024</v>
       </c>
       <c r="D30" t="n">
-        <v>-4687238908543263862755060959890084571014020202496</v>
+        <v>-1065717997236485216265794472980073725034496</v>
       </c>
       <c r="E30" t="n">
-        <v>3064820786865039525100515733805301866190516256768</v>
+        <v>696835543183708570511513083290902041985024</v>
       </c>
       <c r="F30" t="n">
-        <v>4687238908543263862755060959890084571014020202496</v>
+        <v>1065717997236485216265794472980073725034496</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>-2113.02952991893</v>
       </c>
       <c r="C31" t="n">
-        <v>-83134809510052366224972430407698064240802330050560</v>
+        <v>-7019724839801189312217192550553496678563840</v>
       </c>
       <c r="D31" t="n">
-        <v>-127143719286908305840860983381985697788458900127744</v>
+        <v>-10735742702280446185482102237385138578128896</v>
       </c>
       <c r="E31" t="n">
-        <v>83134809510052366224972430407698064240802330050560</v>
+        <v>7019724839801189312217192550553496678563840</v>
       </c>
       <c r="F31" t="n">
-        <v>127143719286908305840860983381985697788458900127744</v>
+        <v>10735742702280446185482102237385138578128896</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>-1516.7674659393</v>
       </c>
       <c r="C32" t="n">
-        <v>-1206119247232217634812784364252809039345742069628928</v>
+        <v>-256088483894609860694389337062866403857530880</v>
       </c>
       <c r="D32" t="n">
-        <v>-1844600208990526991112776471315876654469873127129088</v>
+        <v>-391653538401013255159476178115966841410027520</v>
       </c>
       <c r="E32" t="n">
-        <v>1206119247232217634812784364252809039345742069628928</v>
+        <v>256088483894609860694389337062866403857530880</v>
       </c>
       <c r="F32" t="n">
-        <v>1844600208990526991112776471315876654469873127129088</v>
+        <v>391653538401013255159476178115966841410027520</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>-1279.14526169915</v>
       </c>
       <c r="C33" t="n">
-        <v>-21034525517494570948737091723663066598073220420599808</v>
+        <v>-10654682295558367707131163528884829363174899712</v>
       </c>
       <c r="D33" t="n">
-        <v>-32169530711515725710382187654730622560949513092071424</v>
+        <v>-16294930401131938479049570745498397272572952576</v>
       </c>
       <c r="E33" t="n">
-        <v>21034525517494570948737091723663066598073220420599808</v>
+        <v>10654682295558367707131163528884829363174899712</v>
       </c>
       <c r="F33" t="n">
-        <v>32169530711515725710382187654730622560949513092071424</v>
+        <v>16294930401131938479049570745498397272572952576</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>-11045.9257847863</v>
       </c>
       <c r="C34" t="n">
-        <v>-4362134563885667370530673509863331105925572359536771072</v>
+        <v>-1892169335963054281304628468066541645563384823808</v>
       </c>
       <c r="D34" t="n">
-        <v>-6671309115291074816904211932937895388832319372911443968</v>
+        <v>-2893823277070148001557057479618297348705440759808</v>
       </c>
       <c r="E34" t="n">
-        <v>4362134563885667370530673509863331105925572359536771072</v>
+        <v>1892169335963054281304628468066541645563384823808</v>
       </c>
       <c r="F34" t="n">
-        <v>6671309115291074816904211932937895388832319372911443968</v>
+        <v>2893823277070148001557057479618297348705440759808</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>-5282.43680293937</v>
       </c>
       <c r="C35" t="n">
-        <v>-37224155359558101536726127779067071376985130706793398272</v>
+        <v>-24949005591671563177487362715079458422283367874560</v>
       </c>
       <c r="D35" t="n">
-        <v>-56929432900855361227284712303747598756601814915987013632</v>
+        <v>-38156211364764536286155382834655188154877495738368</v>
       </c>
       <c r="E35" t="n">
-        <v>37224155359558101536726127779067071376985130706793398272</v>
+        <v>24949005591671563177487362715079458422283367874560</v>
       </c>
       <c r="F35" t="n">
-        <v>56929432900855361227284712303747598756601814915987013632</v>
+        <v>38156211364764536286155382834655188154877495738368</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>-5182.90927895741</v>
       </c>
       <c r="C36" t="n">
-        <v>-1045742821184095360043486520305836822563418034861464616960</v>
+        <v>-711598804206199470160789256246581913471602380505088</v>
       </c>
       <c r="D36" t="n">
-        <v>-1599325631303132699706485766697896429212229950344217493504</v>
+        <v>-1088296456563753864800357830004787079490178406940672</v>
       </c>
       <c r="E36" t="n">
-        <v>1045742821184095360043486520305836822563418034861464616960</v>
+        <v>711598804206199470160789256246581913471602380505088</v>
       </c>
       <c r="F36" t="n">
-        <v>1599325631303132699706485766697896429212229950344217493504</v>
+        <v>1088296456563753864800357830004787079490178406940672</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>-4129.72366861243</v>
       </c>
       <c r="C37" t="n">
-        <v>-18274081305088098075521189169220050642189112444090845233152</v>
+        <v>-14928804260792352593987372543608099427863667763314688</v>
       </c>
       <c r="D37" t="n">
-        <v>-27947795602987683370830021729888733953795766812673912602624</v>
+        <v>-22831635862398548890395485378589755816461257530146816</v>
       </c>
       <c r="E37" t="n">
-        <v>18274081305088098075521189169220050642189112444090845233152</v>
+        <v>14928804260792352593987372543608099427863667763314688</v>
       </c>
       <c r="F37" t="n">
-        <v>27947795602987683370830021729888733953795766812673912602624</v>
+        <v>22831635862398548890395485378589755816461257530146816</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>-2573.60713151217</v>
       </c>
       <c r="C38" t="n">
-        <v>-231294795857753248339807362906288592213991879834448580050944</v>
+        <v>-144998337902241153321372684232948880075088532724514816</v>
       </c>
       <c r="D38" t="n">
-        <v>-353734864738038153841998909178316090559237913698154569531392</v>
+        <v>-221755821417761904367152757126603097910085973176221696</v>
       </c>
       <c r="E38" t="n">
-        <v>231294795857753248339807362906288592213991879834448580050944</v>
+        <v>144998337902241153321372684232948880075088532724514816</v>
       </c>
       <c r="F38" t="n">
-        <v>353734864738038153841998909178316090559237913698154569531392</v>
+        <v>221755821417761904367152757126603097910085973176221696</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>-2017.18881422961</v>
       </c>
       <c r="C39" t="n">
-        <v>-3324351154296303428574624700389281293239582116929451396694016</v>
+        <v>-2088247469489234543995619494915855632453021379315367936</v>
       </c>
       <c r="D39" t="n">
-        <v>-5084156353565121174011868221246416732591673047097559683694592</v>
+        <v>-3193698904551307870236910351859962733603690597167661056</v>
       </c>
       <c r="E39" t="n">
-        <v>3324351154296303428574624700389281293239582116929451396694016</v>
+        <v>2088247469489234543995619494915855632453021379315367936</v>
       </c>
       <c r="F39" t="n">
-        <v>5084156353565121174011868221246416732591673047097559683694592</v>
+        <v>3193698904551307870236910351859962733603690597167661056</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>-3597.50480465335</v>
       </c>
       <c r="C40" t="n">
-        <v>-158255280958161055388809909283957042522108292745704194361524224</v>
+        <v>-98109498098726069164292491286080588700668720260598202368</v>
       </c>
       <c r="D40" t="n">
-        <v>-242030566214050859338086174457187626632406397378637903626764288</v>
+        <v>-150045529173138685468262295436962036905614907873859469312</v>
       </c>
       <c r="E40" t="n">
-        <v>158255280958161055388809909283957042522108292745704194361524224</v>
+        <v>98109498098726069164292491286080588700668720260598202368</v>
       </c>
       <c r="F40" t="n">
-        <v>242030566214050859338086174457187626632406397378637903626764288</v>
+        <v>150045529173138685468262295436962036905614907873859469312</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1678,16 +1678,16 @@
         <v>-4351.33482477117</v>
       </c>
       <c r="C41" t="n">
-        <v>-6201486071729226132090163191380179249480377156904347501517078528</v>
+        <v>-5664858970682797988099985415896740512174148245700369973248</v>
       </c>
       <c r="D41" t="n">
-        <v>-9484354494975684067644628314160671504123094504292266356271742976</v>
+        <v>-8663654166204924136784146128630220255498673963786974527488</v>
       </c>
       <c r="E41" t="n">
-        <v>6201486071729226132090163191380179249480377156904347501517078528</v>
+        <v>5664858970682797988099985415896740512174148245700369973248</v>
       </c>
       <c r="F41" t="n">
-        <v>9484354494975684067644628314160671504123094504292266356271742976</v>
+        <v>8663654166204924136784146128630220255498673963786974527488</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1710,16 +1710,16 @@
         <v>-4492.08563409323</v>
       </c>
       <c r="C42" t="n">
-        <v>-174123502878526158647111409718157392792646824224605805218428354560</v>
+        <v>-92809721197070855211841199264364536639298710153040383442944</v>
       </c>
       <c r="D42" t="n">
-        <v>-266298917405513091065645418353832917740175111848943766849619755008</v>
+        <v>-141940219849180819156538277835442260834329894276228037214208</v>
       </c>
       <c r="E42" t="n">
-        <v>174123502878526158647111409718157392792646824224605805218428354560</v>
+        <v>92809721197070855211841199264364536639298710153040383442944</v>
       </c>
       <c r="F42" t="n">
-        <v>266298917405513091065645418353832917740175111848943766849619755008</v>
+        <v>141940219849180819156538277835442260834329894276228037214208</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1742,16 +1742,16 @@
         <v>-3893.52628830757</v>
       </c>
       <c r="C43" t="n">
-        <v>-3938492346499809986377324017851334949876313197575425622221286014976</v>
+        <v>-608537639633695899310814347998730982787175880639598416625664</v>
       </c>
       <c r="D43" t="n">
-        <v>-6023404254705836172452209210712393098892604666353967945278765924352</v>
+        <v>-930678007023626763773753288159176149018449046122871258087424</v>
       </c>
       <c r="E43" t="n">
-        <v>3938492346499809986377324017851334949876313197575425622221286014976</v>
+        <v>608537639633695899310814347998730982787175880639598416625664</v>
       </c>
       <c r="F43" t="n">
-        <v>6023404254705836172452209210712393098892604666353967945278765924352</v>
+        <v>930678007023626763773753288159176149018449046122871258087424</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
         <v>-2713.42108020081</v>
       </c>
       <c r="C44" t="n">
-        <v>-37842990997174535798598219757290146058269407053887032326048509329408</v>
+        <v>-21183889270861747791272870116217387930854366738596129230815232</v>
       </c>
       <c r="D44" t="n">
-        <v>-57875860336697690707057678097479277421193326708903273504675670786048</v>
+        <v>-32397962859753935047486749521636784723452423054500610153906176</v>
       </c>
       <c r="E44" t="n">
-        <v>37842990997174535798598219757290146058269407053887032326048509329408</v>
+        <v>21183889270861747791272870116217387930854366738596129230815232</v>
       </c>
       <c r="F44" t="n">
-        <v>57875860336697690707057678097479277421193326708903273504675670786048</v>
+        <v>32397962859753935047486749521636784723452423054500610153906176</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1806,16 +1806,16 @@
         <v>-2228.45990983942</v>
       </c>
       <c r="C45" t="n">
-        <v>-475281754849013451510622180299309425603530088570958535032440503664640</v>
+        <v>-641413812594295609063836730021488176097586241472774651066187776</v>
       </c>
       <c r="D45" t="n">
-        <v>-726880717918831196534459007479826836156355613335268520541786497613824</v>
+        <v>-980957774677691305118944595859316651057531602522037588668186624</v>
       </c>
       <c r="E45" t="n">
-        <v>475281754849013451510622180299309425603530088570958535032440503664640</v>
+        <v>641413812594295609063836730021488176097586241472774651066187776</v>
       </c>
       <c r="F45" t="n">
-        <v>726880717918831196534459007479826836156355613335268520541786497613824</v>
+        <v>980957774677691305118944595859316651057531602522037588668186624</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>-18788.8897295196</v>
       </c>
       <c r="C46" t="n">
-        <v>-56116759296664861581972558422999419713553990138125510035692666849591296</v>
+        <v>-85562143449759490482602246670634965496001126395664897576796160000</v>
       </c>
       <c r="D46" t="n">
-        <v>-85823177238933015532303548019158081272209113040815897701965198197260288</v>
+        <v>-130856006196140843036414062595474461793511989075312151800462704640</v>
       </c>
       <c r="E46" t="n">
-        <v>56116759296664861581972558422999419713553990138125510035692666849591296</v>
+        <v>85562143449759490482602246670634965496001126395664897576796160000</v>
       </c>
       <c r="F46" t="n">
-        <v>85823177238933015532303548019158081272209113040815897701965198197260288</v>
+        <v>130856006196140843036414062595474461793511989075312151800462704640</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>-8792.53693162892</v>
       </c>
       <c r="C47" t="n">
-        <v>-334567741057046272643829515277721895432367990898955552147219383733714944</v>
+        <v>-959413359559817656152576098424442376454145073531744728369781014528</v>
       </c>
       <c r="D47" t="n">
-        <v>-511677204796729004683836148091823289886341368729620055205982231943184384</v>
+        <v>-1467296113227195066774703484480174216598236246596621476759823450112</v>
       </c>
       <c r="E47" t="n">
-        <v>334567741057046272643829515277721895432367990898955552147219383733714944</v>
+        <v>959413359559817656152576098424442376454145073531744728369781014528</v>
       </c>
       <c r="F47" t="n">
-        <v>511677204796729004683836148091823289886341368729620055205982231943184384</v>
+        <v>1467296113227195066774703484480174216598236246596621476759823450112</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>-8458.05112368775</v>
       </c>
       <c r="C48" t="n">
-        <v>-7144515533684743346421554388983056068114879278424813124507884051310313472</v>
+        <v>-23006560070708356265602585250704287603382250098340569908463139815424</v>
       </c>
       <c r="D48" t="n">
-        <v>-10926593599110018830312602386331360953539431897346878182753441516334612480</v>
+        <v>-35185497298022185552514551344634449596373556689953152426718527488000</v>
       </c>
       <c r="E48" t="n">
-        <v>7144515533684743346421554388983056068114879278424813124507884051310313472</v>
+        <v>23006560070708356265602585250704287603382250098340569908463139815424</v>
       </c>
       <c r="F48" t="n">
-        <v>10926593599110018830312602386331360953539431897346878182753441516334612480</v>
+        <v>35185497298022185552514551344634449596373556689953152426718527488000</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>-6618.54290602818</v>
       </c>
       <c r="C49" t="n">
-        <v>-152517597672706265408484260081787792926902655658318526212849059895200186368</v>
+        <v>-666657068004578722854045130126582540366892954897598868786689341390848</v>
       </c>
       <c r="D49" t="n">
-        <v>-233255536869515705558082317213685018317276634346029495053456558174257545216</v>
+        <v>-1019564002305898891498674508901570853723224887144183393456514519793664</v>
       </c>
       <c r="E49" t="n">
-        <v>152517597672706265408484260081787792926902655658318526212849059895200186368</v>
+        <v>666657068004578722854045130126582540366892954897598868786689341390848</v>
       </c>
       <c r="F49" t="n">
-        <v>233255536869515705558082317213685018317276634346029495053456558174257545216</v>
+        <v>1019564002305898891498674508901570853723224887144183393456514519793664</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/AHC.xlsx
+++ b/outcome/appendix/data/forecast/AHC.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1706.93378964285</v>
+        <v>1973.36496842788</v>
       </c>
       <c r="C2" t="n">
-        <v>331.011500291883</v>
+        <v>513.792315469437</v>
       </c>
       <c r="D2" t="n">
-        <v>-397.35776222131</v>
+        <v>-258.858774674066</v>
       </c>
       <c r="E2" t="n">
-        <v>3082.85607899381</v>
+        <v>3432.93762138632</v>
       </c>
       <c r="F2" t="n">
-        <v>3811.225341507</v>
+        <v>4205.58871152982</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>-432.066210357153</v>
+        <v>-165.635031572121</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1179.7963372841</v>
+        <v>1419.60820759575</v>
       </c>
       <c r="C3" t="n">
-        <v>-22874.0983597031</v>
+        <v>-62375.4408611107</v>
       </c>
       <c r="D3" t="n">
-        <v>-35607.4610478524</v>
+        <v>-96146.4998822458</v>
       </c>
       <c r="E3" t="n">
-        <v>25233.6910342713</v>
+        <v>65214.6572763022</v>
       </c>
       <c r="F3" t="n">
-        <v>37967.0537224206</v>
+        <v>98985.7162974373</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>-492.203662715904</v>
+        <v>-252.391792404247</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1849.35750551692</v>
+        <v>1912.6148583009</v>
       </c>
       <c r="C4" t="n">
-        <v>-1139510.14523813</v>
+        <v>-5574118.78214294</v>
       </c>
       <c r="D4" t="n">
-        <v>-1743709.36906782</v>
+        <v>-8525891.50057169</v>
       </c>
       <c r="E4" t="n">
-        <v>1143208.86024917</v>
+        <v>5577944.01185954</v>
       </c>
       <c r="F4" t="n">
-        <v>1747408.08407885</v>
+        <v>8529716.73028829</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>-161.642494483076</v>
+        <v>-98.3851416990969</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1957.16584813172</v>
+        <v>1784.569574464</v>
       </c>
       <c r="C5" t="n">
-        <v>-32827103.9773025</v>
+        <v>-340673551.945835</v>
       </c>
       <c r="D5" t="n">
-        <v>-50205759.1810906</v>
+        <v>-521016181.420361</v>
       </c>
       <c r="E5" t="n">
-        <v>32831018.3089988</v>
+        <v>340677121.084984</v>
       </c>
       <c r="F5" t="n">
-        <v>50209673.5127869</v>
+        <v>521019750.55951</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>-272.834151868283</v>
+        <v>-445.430425536003</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1757.14704539784</v>
+        <v>1616.66176528675</v>
       </c>
       <c r="C6" t="n">
-        <v>-1009033958.75048</v>
+        <v>-19954285155.6385</v>
       </c>
       <c r="D6" t="n">
-        <v>-1543185201.1033</v>
+        <v>-30517446500.4359</v>
       </c>
       <c r="E6" t="n">
-        <v>1009037473.04457</v>
+        <v>19954288388.9621</v>
       </c>
       <c r="F6" t="n">
-        <v>1543188715.39739</v>
+        <v>30517449733.7594</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>-710.852954602158</v>
+        <v>-851.338234713251</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1314.02653020476</v>
+        <v>1309.4877621282</v>
       </c>
       <c r="C7" t="n">
-        <v>-11461605773.9504</v>
+        <v>-926953057003.208</v>
       </c>
       <c r="D7" t="n">
-        <v>-17529014061.8296</v>
+        <v>-1417652365164.03</v>
       </c>
       <c r="E7" t="n">
-        <v>11461608402.0035</v>
+        <v>926953059622.184</v>
       </c>
       <c r="F7" t="n">
-        <v>17529016689.8826</v>
+        <v>1417652367783</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>-1473.97346979524</v>
+        <v>-1478.5122378718</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>781.898791282622</v>
+        <v>903.626488123769</v>
       </c>
       <c r="C8" t="n">
-        <v>-141045396691.033</v>
+        <v>-36768625119574.5</v>
       </c>
       <c r="D8" t="n">
-        <v>-215710319945.31</v>
+        <v>-56232759518661.6</v>
       </c>
       <c r="E8" t="n">
-        <v>141045398254.83</v>
+        <v>36768625121381.8</v>
       </c>
       <c r="F8" t="n">
-        <v>215710321509.108</v>
+        <v>56232759520468.8</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>-1779.10120871738</v>
+        <v>-1657.37351187623</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>540.773969634442</v>
+        <v>632.868562041545</v>
       </c>
       <c r="C9" t="n">
-        <v>-4048489127426.93</v>
+        <v>-1570436019240978</v>
       </c>
       <c r="D9" t="n">
-        <v>-6191629814406.78</v>
+        <v>-2401774630448981</v>
       </c>
       <c r="E9" t="n">
-        <v>4048489128508.48</v>
+        <v>1570436019242244</v>
       </c>
       <c r="F9" t="n">
-        <v>6191629815488.33</v>
+        <v>2401774630450247</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>-2020.22603036556</v>
+        <v>-1928.13143795845</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3768.69628138122</v>
+        <v>3395.35815789269</v>
       </c>
       <c r="C10" t="n">
-        <v>-458673003598238</v>
+        <v>-551103184100332288</v>
       </c>
       <c r="D10" t="n">
-        <v>-701479824851126</v>
+        <v>-842839587295880064</v>
       </c>
       <c r="E10" t="n">
-        <v>458673003605775</v>
+        <v>551103184100339072</v>
       </c>
       <c r="F10" t="n">
-        <v>701479824858663</v>
+        <v>842839587295886976</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>1219.69628138122</v>
+        <v>846.358157892693</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1420.28365861135</v>
+        <v>1423.16893146048</v>
       </c>
       <c r="C11" t="n">
-        <v>-4750423613797330</v>
+        <v>-13032170132817082368</v>
       </c>
       <c r="D11" t="n">
-        <v>-7265145972020046</v>
+        <v>-19930984275194281984</v>
       </c>
       <c r="E11" t="n">
-        <v>4750423613800170</v>
+        <v>13032170132817086464</v>
       </c>
       <c r="F11" t="n">
-        <v>7265145972022886</v>
+        <v>19930984275194281984</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>-877.716341388652</v>
+        <v>-874.831068539525</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1058.98990201872</v>
+        <v>1361.60506441464</v>
       </c>
       <c r="C12" t="n">
-        <v>-70868985774692816</v>
+        <v>-674509292405571715072</v>
       </c>
       <c r="D12" t="n">
-        <v>-108384760686748960</v>
+        <v>-1031572943216468426752</v>
       </c>
       <c r="E12" t="n">
-        <v>70868985774694928</v>
+        <v>674509292405571715072</v>
       </c>
       <c r="F12" t="n">
-        <v>108384760686751072</v>
+        <v>1031572943216468426752</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>-1479.01009798128</v>
+        <v>-1176.39493558536</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>604.423056896176</v>
+        <v>1087.68551045466</v>
       </c>
       <c r="C13" t="n">
-        <v>-1317833673850312448</v>
+        <v>-30614027806348522029056</v>
       </c>
       <c r="D13" t="n">
-        <v>-2015452680800322816</v>
+        <v>-46820115191114120560640</v>
       </c>
       <c r="E13" t="n">
-        <v>1317833673850313472</v>
+        <v>30614027806348522029056</v>
       </c>
       <c r="F13" t="n">
-        <v>2015452680800323840</v>
+        <v>46820115191114120560640</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>-1978.57694310382</v>
+        <v>-1495.31448954534</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>299.220325828474</v>
+        <v>726.184317812863</v>
       </c>
       <c r="C14" t="n">
-        <v>-13947099634977011712</v>
+        <v>-1126672526850264037064704</v>
       </c>
       <c r="D14" t="n">
-        <v>-21330248199361531904</v>
+        <v>-1723096935283173277827072</v>
       </c>
       <c r="E14" t="n">
-        <v>13947099634977011712</v>
+        <v>1126672526850264037064704</v>
       </c>
       <c r="F14" t="n">
-        <v>21330248199361531904</v>
+        <v>1723096935283173277827072</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>-2005.77967417153</v>
+        <v>-1578.81568218714</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>129.920294648511</v>
+        <v>464.994249468595</v>
       </c>
       <c r="C15" t="n">
-        <v>-240345934232561156096</v>
+        <v>-32439874240631755969134592</v>
       </c>
       <c r="D15" t="n">
-        <v>-367577386342834634752</v>
+        <v>-49612506343143401825763328</v>
       </c>
       <c r="E15" t="n">
-        <v>240345934232561156096</v>
+        <v>32439874240631755969134592</v>
       </c>
       <c r="F15" t="n">
-        <v>367577386342834634752</v>
+        <v>49612506343143401825763328</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>-1743.07970535149</v>
+        <v>-1408.0057505314</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>63.1603030788903</v>
+        <v>539.296699147202</v>
       </c>
       <c r="C16" t="n">
-        <v>-7443267036843868160000</v>
+        <v>-1928976827601721056825442304</v>
       </c>
       <c r="D16" t="n">
-        <v>-11383494594951150305280</v>
+        <v>-2950115477799807920044507136</v>
       </c>
       <c r="E16" t="n">
-        <v>7443267036843868160000</v>
+        <v>1928976827601721056825442304</v>
       </c>
       <c r="F16" t="n">
-        <v>11383494594951150305280</v>
+        <v>2950115477799807920044507136</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>-2821.83969692111</v>
+        <v>-2345.7033008528</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>-108.682958496812</v>
+        <v>410.803494626841</v>
       </c>
       <c r="C17" t="n">
-        <v>-246532154307403141087232</v>
+        <v>-80011073022325998483373293568</v>
       </c>
       <c r="D17" t="n">
-        <v>-377038393510327356489728</v>
+        <v>-122366376589398042202236518400</v>
       </c>
       <c r="E17" t="n">
-        <v>246532154307403141087232</v>
+        <v>80011073022325998483373293568</v>
       </c>
       <c r="F17" t="n">
-        <v>377038393510327356489728</v>
+        <v>122366376589398042202236518400</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>-2916.68295849681</v>
+        <v>-2397.19650537316</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>-286.435490074541</v>
+        <v>276.266653598091</v>
       </c>
       <c r="C18" t="n">
-        <v>-5069400876188746471440384</v>
+        <v>-2587646189712183955031307845632</v>
       </c>
       <c r="D18" t="n">
-        <v>-7752979597277037145882624</v>
+        <v>-3957463338131807907525580292096</v>
       </c>
       <c r="E18" t="n">
-        <v>5069400876188746471440384</v>
+        <v>2587646189712183955031307845632</v>
       </c>
       <c r="F18" t="n">
-        <v>7752979597277037145882624</v>
+        <v>3957463338131807907525580292096</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>-2834.43549007454</v>
+        <v>-2271.73334640191</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>-386.549208799344</v>
+        <v>133.909006858516</v>
       </c>
       <c r="C19" t="n">
-        <v>-71345860942921479546208256</v>
+        <v>-92354965444999192622995230162944</v>
       </c>
       <c r="D19" t="n">
-        <v>-109114078320137964401721344</v>
+        <v>-141244730943555600996309462417408</v>
       </c>
       <c r="E19" t="n">
-        <v>71345860942921479546208256</v>
+        <v>92354965444999192622995230162944</v>
       </c>
       <c r="F19" t="n">
-        <v>109114078320137964401721344</v>
+        <v>141244730943555600996309462417408</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>-2853.54920879934</v>
+        <v>-2333.09099314148</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>-357.956437740955</v>
+        <v>19.8219151087114</v>
       </c>
       <c r="C20" t="n">
-        <v>-1798426769884215813297143808</v>
+        <v>-2145468409750470885003196436054016</v>
       </c>
       <c r="D20" t="n">
-        <v>-2750456394088103198146428928</v>
+        <v>-3281210780849380637456027162247168</v>
       </c>
       <c r="E20" t="n">
-        <v>1798426769884215813297143808</v>
+        <v>2145468409750470885003196436054016</v>
       </c>
       <c r="F20" t="n">
-        <v>2750456394088103198146428928</v>
+        <v>3281210780849380637456027162247168</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>-2923.95643774095</v>
+        <v>-2546.17808489129</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>-361.059839997604</v>
+        <v>-46.4250949688441</v>
       </c>
       <c r="C21" t="n">
-        <v>-67796643602923742293951250432</v>
+        <v>-50461281235122976874695580587130880</v>
       </c>
       <c r="D21" t="n">
-        <v>-103686018812642071878018531328</v>
+        <v>-77173869935197597037231458790408192</v>
       </c>
       <c r="E21" t="n">
-        <v>67796643602923742293951250432</v>
+        <v>50461281235122976874695580587130880</v>
       </c>
       <c r="F21" t="n">
-        <v>103686018812642071878018531328</v>
+        <v>77173869935197597037231458790408192</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>-2377.0598399976</v>
+        <v>-2062.42509496884</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>-3567.43685730477</v>
+        <v>-639.110758178405</v>
       </c>
       <c r="C22" t="n">
-        <v>-11303960164858061320705225523200</v>
+        <v>-9207252806357809231068133670982254592</v>
       </c>
       <c r="D22" t="n">
-        <v>-17287915212668199659414805807104</v>
+        <v>-14081278024382865267558617137566187520</v>
       </c>
       <c r="E22" t="n">
-        <v>11303960164858061320705225523200</v>
+        <v>9207252806357809231068133670982254592</v>
       </c>
       <c r="F22" t="n">
-        <v>17287915212668199659414805807104</v>
+        <v>14081278024382865267558617137566187520</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>-5888.43685730477</v>
+        <v>-2960.1107581784</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>-1896.61006733945</v>
+        <v>-468.810660104821</v>
       </c>
       <c r="C23" t="n">
-        <v>-167250169239544164608263132807168</v>
+        <v>-119520190444049066068462911482606125056</v>
       </c>
       <c r="D23" t="n">
-        <v>-255787060724656423655869343858688</v>
+        <v>-182790357402557355462714735134169366528</v>
       </c>
       <c r="E23" t="n">
-        <v>167250169239544164608263132807168</v>
+        <v>119520190444049066068462911482606125056</v>
       </c>
       <c r="F23" t="n">
-        <v>255787060724656423655869343858688</v>
+        <v>182790357402557355462714735134169366528</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>-3890.61006733945</v>
+        <v>-2462.81066010482</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>-2027.7682273275</v>
+        <v>-690.484197825669</v>
       </c>
       <c r="C24" t="n">
-        <v>-3891057100978388972918241987919872</v>
+        <v>-4018358199630406966136600059523077505024</v>
       </c>
       <c r="D24" t="n">
-        <v>-5950858307028505155759434155163648</v>
+        <v>-6145548536636478348666300925006263091200</v>
       </c>
       <c r="E24" t="n">
-        <v>3891057100978388972918241987919872</v>
+        <v>4018358199630406966136600059523077505024</v>
       </c>
       <c r="F24" t="n">
-        <v>5950858307028505155759434155163648</v>
+        <v>6145548536636478348666300925006263091200</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>-4245.7682273275</v>
+        <v>-2908.48419782567</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>-1735.13880654042</v>
+        <v>-802.268706206156</v>
       </c>
       <c r="C25" t="n">
-        <v>-100035358685545401951695916761088000</v>
+        <v>-81215299482684107885142364339214674296832</v>
       </c>
       <c r="D25" t="n">
-        <v>-152990878771933054191972064121847808</v>
+        <v>-124208082030668413676918056454786444689408</v>
       </c>
       <c r="E25" t="n">
-        <v>100035358685545401951695916761088000</v>
+        <v>81215299482684107885142364339214674296832</v>
       </c>
       <c r="F25" t="n">
-        <v>152990878771933054191972064121847808</v>
+        <v>124208082030668413676918056454786444689408</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>-4248.13880654042</v>
+        <v>-3315.26870620616</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>-1119.96181242635</v>
+        <v>-534.410907479128</v>
       </c>
       <c r="C26" t="n">
-        <v>-883996219372344658841821360383066112</v>
+        <v>-1565894137038485566316483390813193478602752</v>
       </c>
       <c r="D26" t="n">
-        <v>-1351955550616559127862246391161028608</v>
+        <v>-2394828421042608409921047948904066707357696</v>
       </c>
       <c r="E26" t="n">
-        <v>883996219372344658841821360383066112</v>
+        <v>1565894137038485566316483390813193478602752</v>
       </c>
       <c r="F26" t="n">
-        <v>1351955550616559127862246391161028608</v>
+        <v>2394828421042608409921047948904066707357696</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>-2930.96181242635</v>
+        <v>-2345.41090747913</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>-930.01111145683</v>
+        <v>-501.836315424655</v>
       </c>
       <c r="C27" t="n">
-        <v>-20216294878134549538112822126498021376</v>
+        <v>-16989708872529156973861783204251725513883648</v>
       </c>
       <c r="D27" t="n">
-        <v>-30918154936003081727123758918104252416</v>
+        <v>-25983517474637948987639422696338337275314176</v>
       </c>
       <c r="E27" t="n">
-        <v>20216294878134549538112822126498021376</v>
+        <v>16989708872529156973861783204251725513883648</v>
       </c>
       <c r="F27" t="n">
-        <v>30918154936003081727123758918104252416</v>
+        <v>25983517474637948987639422696338337275314176</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>-2491.01111145683</v>
+        <v>-2062.83631542465</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>-1742.6877872812</v>
+        <v>-854.377862515954</v>
       </c>
       <c r="C28" t="n">
-        <v>-658296461710686182528736421639679377408</v>
+        <v>-425461455178288126926438710680225239319707648</v>
       </c>
       <c r="D28" t="n">
-        <v>-1006777558384709695992959375965591437312</v>
+        <v>-650687144691741184579904650834830985531490304</v>
       </c>
       <c r="E28" t="n">
-        <v>658296461710686182528736421639679377408</v>
+        <v>425461455178288126926438710680225239319707648</v>
       </c>
       <c r="F28" t="n">
-        <v>1006777558384709695992959375965591437312</v>
+        <v>650687144691741184579904650834830985531490304</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>-4301.6877872812</v>
+        <v>-3413.37786251595</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>-2200.18678896121</v>
+        <v>-986.086058812379</v>
       </c>
       <c r="C29" t="n">
-        <v>-26502723646688054100466034481936084238336</v>
+        <v>-7974130785125550059538262454756267453531029504</v>
       </c>
       <c r="D29" t="n">
-        <v>-40532418075313761192088206736530601934848</v>
+        <v>-12195380636296571076606793866389511822704115712</v>
       </c>
       <c r="E29" t="n">
-        <v>26502723646688054100466034481936084238336</v>
+        <v>7974130785125550059538262454756267453531029504</v>
       </c>
       <c r="F29" t="n">
-        <v>40532418075313761192088206736530601934848</v>
+        <v>12195380636296571076606793866389511822704115712</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>-4655.18678896121</v>
+        <v>-3441.08605881238</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>-2358.27884317617</v>
+        <v>-1089.36245392433</v>
       </c>
       <c r="C30" t="n">
-        <v>-696835543183708570511513083290902041985024</v>
+        <v>-119885533462299138536658841334612832533295923200</v>
       </c>
       <c r="D30" t="n">
-        <v>-1065717997236485216265794472980073725034496</v>
+        <v>-183349101332200920888521288064554842929013719040</v>
       </c>
       <c r="E30" t="n">
-        <v>696835543183708570511513083290902041985024</v>
+        <v>119885533462299138536658841334612832533295923200</v>
       </c>
       <c r="F30" t="n">
-        <v>1065717997236485216265794472980073725034496</v>
+        <v>183349101332200920888521288064554842929013719040</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>-4867.27884317617</v>
+        <v>-3598.36245392433</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>-2113.02952991893</v>
+        <v>-1066.12626448869</v>
       </c>
       <c r="C31" t="n">
-        <v>-7019724839801189312217192550553496678563840</v>
+        <v>-3238910998908868559740890886771136066506438213632</v>
       </c>
       <c r="D31" t="n">
-        <v>-10735742702280446185482102237385138578128896</v>
+        <v>-4953486912010722400412455480350717321562898300928</v>
       </c>
       <c r="E31" t="n">
-        <v>7019724839801189312217192550553496678563840</v>
+        <v>3238910998908868559740890886771136066506438213632</v>
       </c>
       <c r="F31" t="n">
-        <v>10735742702280446185482102237385138578128896</v>
+        <v>4953486912010722400412455480350717321562898300928</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>-5018.02952991893</v>
+        <v>-3971.12626448869</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>-1516.7674659393</v>
+        <v>-884.103723046041</v>
       </c>
       <c r="C32" t="n">
-        <v>-256088483894609860694389337062866403857530880</v>
+        <v>-91265363222748303257065608260500662906080609697792</v>
       </c>
       <c r="D32" t="n">
-        <v>-391653538401013255159476178115966841410027520</v>
+        <v>-139578328146740308967318179694109694911314743263232</v>
       </c>
       <c r="E32" t="n">
-        <v>256088483894609860694389337062866403857530880</v>
+        <v>91265363222748303257065608260500662906080609697792</v>
       </c>
       <c r="F32" t="n">
-        <v>391653538401013255159476178115966841410027520</v>
+        <v>139578328146740308967318179694109694911314743263232</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>-4145.7674659393</v>
+        <v>-3513.10372304604</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>-1279.14526169915</v>
+        <v>-742.506678088128</v>
       </c>
       <c r="C33" t="n">
-        <v>-10654682295558367707131163528884829363174899712</v>
+        <v>-980464567192843317114923632628652068903555222732800</v>
       </c>
       <c r="D33" t="n">
-        <v>-16294930401131938479049570745498397272572952576</v>
+        <v>-1499491157032764792329601967494458554234600941420544</v>
       </c>
       <c r="E33" t="n">
-        <v>10654682295558367707131163528884829363174899712</v>
+        <v>980464567192843317114923632628652068903555222732800</v>
       </c>
       <c r="F33" t="n">
-        <v>16294930401131938479049570745498397272572952576</v>
+        <v>1499491157032764792329601967494458554234600941420544</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>-3546.14526169915</v>
+        <v>-3009.50667808813</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>-11045.9257847863</v>
+        <v>-4781.08262744082</v>
       </c>
       <c r="C34" t="n">
-        <v>-1892169335963054281304628468066541645563384823808</v>
+        <v>-108650113756798251491725695244171977853508089817333760</v>
       </c>
       <c r="D34" t="n">
-        <v>-2893823277070148001557057479618297348705440759808</v>
+        <v>-166166009706375165452250687845980980079965013022867456</v>
       </c>
       <c r="E34" t="n">
-        <v>1892169335963054281304628468066541645563384823808</v>
+        <v>108650113756798251491725695244171977853508089817333760</v>
       </c>
       <c r="F34" t="n">
-        <v>2893823277070148001557057479618297348705440759808</v>
+        <v>166166009706375165452250687845980980079965013022867456</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>-13318.9257847863</v>
+        <v>-7054.08262744082</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>-5282.43680293937</v>
+        <v>-2414.8319374387</v>
       </c>
       <c r="C35" t="n">
-        <v>-24949005591671563177487362715079458422283367874560</v>
+        <v>-713473595272080614715184215508515448085964414156537856</v>
       </c>
       <c r="D35" t="n">
-        <v>-38156211364764536286155382834655188154877495738368</v>
+        <v>-1091163702070260498179939877911696383831744974812086272</v>
       </c>
       <c r="E35" t="n">
-        <v>24949005591671563177487362715079458422283367874560</v>
+        <v>713473595272080614715184215508515448085964414156537856</v>
       </c>
       <c r="F35" t="n">
-        <v>38156211364764536286155382834655188154877495738368</v>
+        <v>1091163702070260498179939877911696383831744974812086272</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>-7291.43680293937</v>
+        <v>-4423.8319374387</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>-5182.90927895741</v>
+        <v>-2805.09303186488</v>
       </c>
       <c r="C36" t="n">
-        <v>-711598804206199470160789256246581913471602380505088</v>
+        <v>-13567970363462464163808850146859573892989098126406057984</v>
       </c>
       <c r="D36" t="n">
-        <v>-1088296456563753864800357830004787079490178406940672</v>
+        <v>-20750420014814274553266697605583921632348400903633502208</v>
       </c>
       <c r="E36" t="n">
-        <v>711598804206199470160789256246581913471602380505088</v>
+        <v>13567970363462464163808850146859573892989098126406057984</v>
       </c>
       <c r="F36" t="n">
-        <v>1088296456563753864800357830004787079490178406940672</v>
+        <v>20750420014814274553266697605583921632348400903633502208</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>-6920.90927895741</v>
+        <v>-4543.09303186488</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>-4129.72366861243</v>
+        <v>-2753.37144116519</v>
       </c>
       <c r="C37" t="n">
-        <v>-14928804260792352593987372543608099427863667763314688</v>
+        <v>-158028362358931186804508236626978561240810684400749510656</v>
       </c>
       <c r="D37" t="n">
-        <v>-22831635862398548890395485378589755816461257530146816</v>
+        <v>-241683524164499130087415641014322592202665409325943488512</v>
       </c>
       <c r="E37" t="n">
-        <v>14928804260792352593987372543608099427863667763314688</v>
+        <v>158028362358931186804508236626978561240810684400749510656</v>
       </c>
       <c r="F37" t="n">
-        <v>22831635862398548890395485378589755816461257530146816</v>
+        <v>241683524164499130087415641014322592202665409325943488512</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>-5698.72366861243</v>
+        <v>-4322.37144116519</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>-2573.60713151217</v>
+        <v>-1835.77702859939</v>
       </c>
       <c r="C38" t="n">
-        <v>-144998337902241153321372684232948880075088532724514816</v>
+        <v>-2353445715776225306429306333683649533952885374641370038272</v>
       </c>
       <c r="D38" t="n">
-        <v>-221755821417761904367152757126603097910085973176221696</v>
+        <v>-3599284622254989920024497862463012907819302892617483681792</v>
       </c>
       <c r="E38" t="n">
-        <v>144998337902241153321372684232948880075088532724514816</v>
+        <v>2353445715776225306429306333683649533952885374641370038272</v>
       </c>
       <c r="F38" t="n">
-        <v>221755821417761904367152757126603097910085973176221696</v>
+        <v>3599284622254989920024497862463012907819302892617483681792</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>-3729.60713151217</v>
+        <v>-2991.77702859939</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>-2017.18881422961</v>
+        <v>-1501.9096118062</v>
       </c>
       <c r="C39" t="n">
-        <v>-2088247469489234543995619494915855632453021379315367936</v>
+        <v>-19283810261005903658095425632632656515750845897706313875456</v>
       </c>
       <c r="D39" t="n">
-        <v>-3193698904551307870236910351859962733603690597167661056</v>
+        <v>-29492042780357505835763871224832270802995196343197936648192</v>
       </c>
       <c r="E39" t="n">
-        <v>2088247469489234543995619494915855632453021379315367936</v>
+        <v>19283810261005903658095425632632656515750845897706313875456</v>
       </c>
       <c r="F39" t="n">
-        <v>3193698904551307870236910351859962733603690597167661056</v>
+        <v>29492042780357505835763871224832270802995196343197936648192</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>-3975.18881422961</v>
+        <v>-3459.9096118062</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>-3597.50480465335</v>
+        <v>-2298.78157618665</v>
       </c>
       <c r="C40" t="n">
-        <v>-98109498098726069164292491286080588700668720260598202368</v>
+        <v>-224804179179602902560141613536738361182610830040406136193024</v>
       </c>
       <c r="D40" t="n">
-        <v>-150045529173138685468262295436962036905614907873859469312</v>
+        <v>-343808323139047824588763242919223303694720466307211908349952</v>
       </c>
       <c r="E40" t="n">
-        <v>98109498098726069164292491286080588700668720260598202368</v>
+        <v>224804179179602902560141613536738361182610830040406136193024</v>
       </c>
       <c r="F40" t="n">
-        <v>150045529173138685468262295436962036905614907873859469312</v>
+        <v>343808323139047824588763242919223303694720466307211908349952</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>-5805.50480465335</v>
+        <v>-4506.78157618665</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>-4351.33482477117</v>
+        <v>-2436.60513661632</v>
       </c>
       <c r="C41" t="n">
-        <v>-5664858970682797988099985415896740512174148245700369973248</v>
+        <v>-3796665409429680401356387046215499770666039962553908637728768</v>
       </c>
       <c r="D41" t="n">
-        <v>-8663654166204924136784146128630220255498673963786974527488</v>
+        <v>-5806498672309738654603867430486032135510047926734045694656512</v>
       </c>
       <c r="E41" t="n">
-        <v>5664858970682797988099985415896740512174148245700369973248</v>
+        <v>3796665409429680401356387046215499770666039962553908637728768</v>
       </c>
       <c r="F41" t="n">
-        <v>8663654166204924136784146128630220255498673963786974527488</v>
+        <v>5806498672309738654603867430486032135510047926734045694656512</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>-6561.33482477117</v>
+        <v>-4646.60513661632</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>-4492.08563409323</v>
+        <v>-2510.1100195358</v>
       </c>
       <c r="C42" t="n">
-        <v>-92809721197070855211841199264364536639298710153040383442944</v>
+        <v>-50267967300431484737703977747663162854051971284383722236805120</v>
       </c>
       <c r="D42" t="n">
-        <v>-141940219849180819156538277835442260834329894276228037214208</v>
+        <v>-76878221785024219638310811225221786768106325006316040389394432</v>
       </c>
       <c r="E42" t="n">
-        <v>92809721197070855211841199264364536639298710153040383442944</v>
+        <v>50267967300431484737703977747663162854051971284383722236805120</v>
       </c>
       <c r="F42" t="n">
-        <v>141940219849180819156538277835442260834329894276228037214208</v>
+        <v>76878221785024219638310811225221786768106325006316040389394432</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>-6803.08563409323</v>
+        <v>-4821.1100195358</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>-3893.52628830757</v>
+        <v>-2316.93183483366</v>
       </c>
       <c r="C43" t="n">
-        <v>-608537639633695899310814347998730982787175880639598416625664</v>
+        <v>-1381692867224052524153821986279382560377453892719322646196518912</v>
       </c>
       <c r="D43" t="n">
-        <v>-930678007023626763773753288159176149018449046122871258087424</v>
+        <v>-2113116889139158506599458549162720998144394184478419242012639232</v>
       </c>
       <c r="E43" t="n">
-        <v>608537639633695899310814347998730982787175880639598416625664</v>
+        <v>1381692867224052524153821986279382560377453892719322646196518912</v>
       </c>
       <c r="F43" t="n">
-        <v>930678007023626763773753288159176149018449046122871258087424</v>
+        <v>2113116889139158506599458549162720998144394184478419242012639232</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>-8878.52628830757</v>
+        <v>-7301.93183483366</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>-2713.42108020081</v>
+        <v>-1828.01076553431</v>
       </c>
       <c r="C44" t="n">
-        <v>-21183889270861747791272870116217387930854366738596129230815232</v>
+        <v>-24172790913333139338600876157676594400280263255666074186040737792</v>
       </c>
       <c r="D44" t="n">
-        <v>-32397962859753935047486749521636784723452423054500610153906176</v>
+        <v>-36969093456506082110964246856087933344281002742438117374783651840</v>
       </c>
       <c r="E44" t="n">
-        <v>21183889270861747791272870116217387930854366738596129230815232</v>
+        <v>24172790913333139338600876157676594400280263255666074186040737792</v>
       </c>
       <c r="F44" t="n">
-        <v>32397962859753935047486749521636784723452423054500610153906176</v>
+        <v>36969093456506082110964246856087933344281002742438117374783651840</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-16138.4210802008</v>
+        <v>-15253.0107655343</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>-2228.45990983942</v>
+        <v>-1470.7000096526</v>
       </c>
       <c r="C45" t="n">
-        <v>-641413812594295609063836730021488176097586241472774651066187776</v>
+        <v>-123116648938001539799028308481354460561101703235125418744747130880</v>
       </c>
       <c r="D45" t="n">
-        <v>-980957774677691305118944595859316651057531602522037588668186624</v>
+        <v>-188290666020294878625521421058622344690535327627923187650493677568</v>
       </c>
       <c r="E45" t="n">
-        <v>641413812594295609063836730021488176097586241472774651066187776</v>
+        <v>123116648938001539799028308481354460561101703235125418744747130880</v>
       </c>
       <c r="F45" t="n">
-        <v>980957774677691305118944595859316651057531602522037588668186624</v>
+        <v>188290666020294878625521421058622344690535327627923187650493677568</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-14970.4599098394</v>
+        <v>-14212.7000096526</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>-18788.8897295196</v>
+        <v>-9121.91736372825</v>
       </c>
       <c r="C46" t="n">
-        <v>-85562143449759490482602246670634965496001126395664897576796160000</v>
+        <v>-10316613655701172864569267808334085861581384789350800188084366344192</v>
       </c>
       <c r="D46" t="n">
-        <v>-130856006196140843036414062595474461793511989075312151800462704640</v>
+        <v>-15777899033657490338478691506759004914303996031276578236240626712576</v>
       </c>
       <c r="E46" t="n">
-        <v>85562143449759490482602246670634965496001126395664897576796160000</v>
+        <v>10316613655701172864569267808334085861581384789350800188084366344192</v>
       </c>
       <c r="F46" t="n">
-        <v>130856006196140843036414062595474461793511989075312151800462704640</v>
+        <v>15777899033657490338478691506759004914303996031276578236240626712576</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-144052.88972952</v>
+        <v>-134385.917363728</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>-8792.53693162892</v>
+        <v>-4457.90064658537</v>
       </c>
       <c r="C47" t="n">
-        <v>-959413359559817656152576098424442376454145073531744728369781014528</v>
+        <v>-31474805399756646734168302362981804949765527192574918241196219301888</v>
       </c>
       <c r="D47" t="n">
-        <v>-1467296113227195066774703484480174216598236246596621476759823450112</v>
+        <v>-48136560917636295288864101603096113136019926481498619632318286921728</v>
       </c>
       <c r="E47" t="n">
-        <v>959413359559817656152576098424442376454145073531744728369781014528</v>
+        <v>31474805399756646734168302362981804949765527192574918241196219301888</v>
       </c>
       <c r="F47" t="n">
-        <v>1467296113227195066774703484480174216598236246596621476759823450112</v>
+        <v>48136560917636295288864101603096113136019926481498619632318286921728</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-31903.5369316289</v>
+        <v>-27568.9006465854</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>-8458.05112368775</v>
+        <v>-5029.04110536709</v>
       </c>
       <c r="C48" t="n">
-        <v>-23006560070708356265602585250704287603382250098340569908463139815424</v>
+        <v>-458713944896870511080849530748116323373779119446509916628867738501120</v>
       </c>
       <c r="D48" t="n">
-        <v>-35185497298022185552514551344634449596373556689953152426718527488000</v>
+        <v>-701542439162092172912011741374031960816393481686094993927408690659328</v>
       </c>
       <c r="E48" t="n">
-        <v>23006560070708356265602585250704287603382250098340569908463139815424</v>
+        <v>458713944896870511080849530748116323373779119446509916628867738501120</v>
       </c>
       <c r="F48" t="n">
-        <v>35185497298022185552514551344634449596373556689953152426718527488000</v>
+        <v>701542439162092172912011741374031960816393481686094993927408690659328</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-13398.0511236878</v>
+        <v>-9969.04110536709</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>-6618.54290602818</v>
+        <v>-4808.90267333723</v>
       </c>
       <c r="C49" t="n">
-        <v>-666657068004578722854045130126582540366892954897598868786689341390848</v>
+        <v>-3310876522032506500641308205761569358960684507295319087075038003724288</v>
       </c>
       <c r="D49" t="n">
-        <v>-1019564002305898891498674508901570853723224887144183393456514519793664</v>
+        <v>-5063548681855289504145050561764878332960720666827585105695464159707136</v>
       </c>
       <c r="E49" t="n">
-        <v>666657068004578722854045130126582540366892954897598868786689341390848</v>
+        <v>3310876522032506500641308205761569358960684507295319087075038003724288</v>
       </c>
       <c r="F49" t="n">
-        <v>1019564002305898891498674508901570853723224887144183393456514519793664</v>
+        <v>5063548681855289504145050561764878332960720666827585105695464159707136</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-10491.5429060282</v>
+        <v>-8681.90267333723</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
